--- a/Jogos_do_Dia/2023-09-01_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-01_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -130,12 +130,12 @@
     <t>Estonia Meistriliiga</t>
   </si>
   <si>
+    <t>Romania Liga I</t>
+  </si>
+  <si>
     <t>Slovakia Super Liga</t>
   </si>
   <si>
-    <t>Romania Liga I</t>
-  </si>
-  <si>
     <t>Poland Ekstraklasa</t>
   </si>
   <si>
@@ -157,15 +157,15 @@
     <t>Norway First Division</t>
   </si>
   <si>
+    <t>Germany 3. Liga</t>
+  </si>
+  <si>
+    <t>Portugal LigaPro</t>
+  </si>
+  <si>
     <t>Serbia SuperLiga</t>
   </si>
   <si>
-    <t>Germany 3. Liga</t>
-  </si>
-  <si>
-    <t>Portugal LigaPro</t>
-  </si>
-  <si>
     <t>Switzerland Challenge League</t>
   </si>
   <si>
@@ -196,12 +196,12 @@
     <t>Germany Bundesliga</t>
   </si>
   <si>
+    <t>Republic of Ireland Premier Division</t>
+  </si>
+  <si>
     <t>Wales Welsh Premier League</t>
   </si>
   <si>
-    <t>Republic of Ireland Premier Division</t>
-  </si>
-  <si>
     <t>Belgium Pro League</t>
   </si>
   <si>
@@ -217,9 +217,6 @@
     <t>Uruguay Primera División</t>
   </si>
   <si>
-    <t>Italy Serie B</t>
-  </si>
-  <si>
     <t>Brazil Serie B</t>
   </si>
   <si>
@@ -301,6 +298,9 @@
     <t>21:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
     <t>Daejeon Citizen</t>
   </si>
   <si>
@@ -313,27 +313,27 @@
     <t>Trans</t>
   </si>
   <si>
+    <t>Petrolul 52</t>
+  </si>
+  <si>
     <t>Dukla Banská Bystrica</t>
   </si>
   <si>
-    <t>Petrolul 52</t>
-  </si>
-  <si>
     <t>ŁKS Łódź</t>
   </si>
   <si>
+    <t>Floridsdorfer AC</t>
+  </si>
+  <si>
+    <t>Admira</t>
+  </si>
+  <si>
+    <t>Amstetten</t>
+  </si>
+  <si>
     <t>First Vienna</t>
   </si>
   <si>
-    <t>Amstetten</t>
-  </si>
-  <si>
-    <t>Admira</t>
-  </si>
-  <si>
-    <t>Floridsdorfer AC</t>
-  </si>
-  <si>
     <t>Botev Vratsa</t>
   </si>
   <si>
@@ -355,15 +355,15 @@
     <t>Skeid</t>
   </si>
   <si>
+    <t>Saarbrucken</t>
+  </si>
+  <si>
+    <t>CD Tondela</t>
+  </si>
+  <si>
     <t>Radnik Surdulica</t>
   </si>
   <si>
-    <t>Saarbrucken</t>
-  </si>
-  <si>
-    <t>CD Tondela</t>
-  </si>
-  <si>
     <t>Neuchâtel Xamax</t>
   </si>
   <si>
@@ -373,51 +373,51 @@
     <t>AD Alcorcón</t>
   </si>
   <si>
+    <t>Telstar</t>
+  </si>
+  <si>
+    <t>Slaven Koprivnica</t>
+  </si>
+  <si>
+    <t>Oss</t>
+  </si>
+  <si>
+    <t>RSC Anderlecht II</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>Den Bosch</t>
+  </si>
+  <si>
+    <t>Zulte-Waregem</t>
+  </si>
+  <si>
     <t>Emmen</t>
   </si>
   <si>
-    <t>Telstar</t>
-  </si>
-  <si>
-    <t>Slaven Koprivnica</t>
-  </si>
-  <si>
-    <t>Zulte-Waregem</t>
-  </si>
-  <si>
-    <t>RSC Anderlecht II</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam</t>
+    <t>Helmond Sport</t>
+  </si>
+  <si>
+    <t>VVV</t>
+  </si>
+  <si>
+    <t>Kifisia</t>
+  </si>
+  <si>
+    <t>Kasımpaşa</t>
+  </si>
+  <si>
+    <t>Rizespor</t>
+  </si>
+  <si>
+    <t>Utrecht II</t>
   </si>
   <si>
     <t>MVV</t>
   </si>
   <si>
-    <t>Den Bosch</t>
-  </si>
-  <si>
-    <t>Helmond Sport</t>
-  </si>
-  <si>
-    <t>VVV</t>
-  </si>
-  <si>
-    <t>Kifisia</t>
-  </si>
-  <si>
-    <t>Kasımpaşa</t>
-  </si>
-  <si>
-    <t>Rizespor</t>
-  </si>
-  <si>
-    <t>Oss</t>
-  </si>
-  <si>
-    <t>Utrecht II</t>
-  </si>
-  <si>
     <t>Aarau</t>
   </si>
   <si>
@@ -427,16 +427,31 @@
     <t>Rapid Bucureşti</t>
   </si>
   <si>
+    <t>Ruch Chorzów</t>
+  </si>
+  <si>
+    <t>Borussia Dortmund</t>
+  </si>
+  <si>
+    <t>Grazer AK</t>
+  </si>
+  <si>
     <t>Botev Plovdiv</t>
   </si>
   <si>
-    <t>Ruch Chorzów</t>
-  </si>
-  <si>
-    <t>Borussia Dortmund</t>
-  </si>
-  <si>
-    <t>Grazer AK</t>
+    <t>Shamrock Rovers</t>
+  </si>
+  <si>
+    <t>Cork City</t>
+  </si>
+  <si>
+    <t>Drogheda United</t>
+  </si>
+  <si>
+    <t>Shelbourne</t>
+  </si>
+  <si>
+    <t>Dundalk</t>
   </si>
   <si>
     <t>Roma</t>
@@ -445,30 +460,15 @@
     <t>The New Saints</t>
   </si>
   <si>
+    <t>OH Leuven</t>
+  </si>
+  <si>
     <t>Newtown</t>
   </si>
   <si>
     <t>Caernarfon Town</t>
   </si>
   <si>
-    <t>Shamrock Rovers</t>
-  </si>
-  <si>
-    <t>Dundalk</t>
-  </si>
-  <si>
-    <t>Drogheda United</t>
-  </si>
-  <si>
-    <t>Cork City</t>
-  </si>
-  <si>
-    <t>OH Leuven</t>
-  </si>
-  <si>
-    <t>Shelbourne</t>
-  </si>
-  <si>
     <t>Luton Town</t>
   </si>
   <si>
@@ -487,9 +487,6 @@
     <t>Wanderers</t>
   </si>
   <si>
-    <t>Lecco</t>
-  </si>
-  <si>
     <t>Vitória</t>
   </si>
   <si>
@@ -502,6 +499,9 @@
     <t>Central Córdoba SdE</t>
   </si>
   <si>
+    <t>Londrina</t>
+  </si>
+  <si>
     <t>Suwon</t>
   </si>
   <si>
@@ -514,27 +514,27 @@
     <t>Tallinna Kalev</t>
   </si>
   <si>
+    <t>Oţelul Galaţi</t>
+  </si>
+  <si>
     <t>Ružomberok</t>
   </si>
   <si>
-    <t>Oţelul Galaţi</t>
-  </si>
-  <si>
     <t>Warta Poznań</t>
   </si>
   <si>
+    <t>Liefering</t>
+  </si>
+  <si>
+    <t>Sturm Graz II</t>
+  </si>
+  <si>
+    <t>St. Pölten</t>
+  </si>
+  <si>
     <t>SV Stripfing Weiden</t>
   </si>
   <si>
-    <t>St. Pölten</t>
-  </si>
-  <si>
-    <t>Sturm Graz II</t>
-  </si>
-  <si>
-    <t>Liefering</t>
-  </si>
-  <si>
     <t>Cherno More</t>
   </si>
   <si>
@@ -556,15 +556,15 @@
     <t>Åsane</t>
   </si>
   <si>
+    <t>Borussia Dortmund II</t>
+  </si>
+  <si>
+    <t>CF Os Belenenses</t>
+  </si>
+  <si>
     <t>Bačka Topola</t>
   </si>
   <si>
-    <t>Borussia Dortmund II</t>
-  </si>
-  <si>
-    <t>CF Os Belenenses</t>
-  </si>
-  <si>
     <t>Bellinzona</t>
   </si>
   <si>
@@ -574,51 +574,51 @@
     <t>Racing Club de Ferrol</t>
   </si>
   <si>
+    <t>Eindhoven</t>
+  </si>
+  <si>
+    <t>Lokomotiva Zagreb</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>KRC Genk II</t>
+  </si>
+  <si>
+    <t>NEC</t>
+  </si>
+  <si>
+    <t>PSV II</t>
+  </si>
+  <si>
+    <t>FCV Dender EH</t>
+  </si>
+  <si>
     <t>Dordrecht</t>
   </si>
   <si>
-    <t>Eindhoven</t>
-  </si>
-  <si>
-    <t>Lokomotiva Zagreb</t>
-  </si>
-  <si>
-    <t>FCV Dender EH</t>
-  </si>
-  <si>
-    <t>KRC Genk II</t>
-  </si>
-  <si>
-    <t>NEC</t>
+    <t>Cambuur</t>
+  </si>
+  <si>
+    <t>De Graafschap</t>
+  </si>
+  <si>
+    <t>Atromitos</t>
+  </si>
+  <si>
+    <t>Trabzonspor</t>
+  </si>
+  <si>
+    <t>Fatih Karagümrük</t>
+  </si>
+  <si>
+    <t>Roda JC</t>
   </si>
   <si>
     <t>Ajax II</t>
   </si>
   <si>
-    <t>PSV II</t>
-  </si>
-  <si>
-    <t>Cambuur</t>
-  </si>
-  <si>
-    <t>De Graafschap</t>
-  </si>
-  <si>
-    <t>Atromitos</t>
-  </si>
-  <si>
-    <t>Trabzonspor</t>
-  </si>
-  <si>
-    <t>Fatih Karagümrük</t>
-  </si>
-  <si>
-    <t>Groningen</t>
-  </si>
-  <si>
-    <t>Roda JC</t>
-  </si>
-  <si>
     <t>Stade Nyonnais</t>
   </si>
   <si>
@@ -628,16 +628,31 @@
     <t>Dinamo Bucureşti</t>
   </si>
   <si>
+    <t>Stal Mielec</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
+  </si>
+  <si>
+    <t>Ried</t>
+  </si>
+  <si>
     <t>Slavia Sofia</t>
   </si>
   <si>
-    <t>Stal Mielec</t>
-  </si>
-  <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
-    <t>Ried</t>
+    <t>Bohemians</t>
+  </si>
+  <si>
+    <t>Sligo Rovers</t>
+  </si>
+  <si>
+    <t>UCD</t>
+  </si>
+  <si>
+    <t>St Patrick's Athl.</t>
+  </si>
+  <si>
+    <t>Derry City</t>
   </si>
   <si>
     <t>AC Milan</t>
@@ -646,30 +661,15 @@
     <t>Aberystwyth Town</t>
   </si>
   <si>
+    <t>KV Kortrijk</t>
+  </si>
+  <si>
     <t>Cardiff MU</t>
   </si>
   <si>
     <t>Connah's Quay</t>
   </si>
   <si>
-    <t>Bohemians</t>
-  </si>
-  <si>
-    <t>Derry City</t>
-  </si>
-  <si>
-    <t>UCD</t>
-  </si>
-  <si>
-    <t>Sligo Rovers</t>
-  </si>
-  <si>
-    <t>KV Kortrijk</t>
-  </si>
-  <si>
-    <t>St Patrick's Athl.</t>
-  </si>
-  <si>
     <t>West Ham United</t>
   </si>
   <si>
@@ -688,9 +688,6 @@
     <t>Torque</t>
   </si>
   <si>
-    <t>Catanzaro</t>
-  </si>
-  <si>
     <t>Mirassol</t>
   </si>
   <si>
@@ -701,6 +698,9 @@
   </si>
   <si>
     <t>Platense</t>
+  </si>
+  <si>
+    <t>Tombense</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1183,7 @@
         <v>45170</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2">
         <v>29</v>
@@ -1195,13 +1195,13 @@
         <v>162</v>
       </c>
       <c r="G2">
-        <v>1.76</v>
+        <v>2.01</v>
       </c>
       <c r="H2">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="I2">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="J2">
         <v>1.04</v>
@@ -1216,10 +1216,10 @@
         <v>4.3</v>
       </c>
       <c r="N2">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="O2">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="P2">
         <v>1.35</v>
@@ -1290,7 +1290,7 @@
         <v>45170</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3">
         <v>29</v>
@@ -1302,13 +1302,13 @@
         <v>163</v>
       </c>
       <c r="G3">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="H3">
+        <v>3.25</v>
+      </c>
+      <c r="I3">
         <v>3.3</v>
-      </c>
-      <c r="I3">
-        <v>3.95</v>
       </c>
       <c r="J3">
         <v>1.03</v>
@@ -1323,10 +1323,10 @@
         <v>3.1</v>
       </c>
       <c r="N3">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="O3">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P3">
         <v>1.47</v>
@@ -1397,7 +1397,7 @@
         <v>45170</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -1409,13 +1409,13 @@
         <v>164</v>
       </c>
       <c r="G4">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="H4">
-        <v>3.21</v>
+        <v>3.55</v>
       </c>
       <c r="I4">
-        <v>1.94</v>
+        <v>1.67</v>
       </c>
       <c r="J4">
         <v>1.05</v>
@@ -1430,10 +1430,10 @@
         <v>3</v>
       </c>
       <c r="N4">
-        <v>2.18</v>
+        <v>2.01</v>
       </c>
       <c r="O4">
-        <v>1.49</v>
+        <v>1.74</v>
       </c>
       <c r="P4">
         <v>1.44</v>
@@ -1504,7 +1504,7 @@
         <v>45170</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5">
         <v>26</v>
@@ -1516,43 +1516,43 @@
         <v>165</v>
       </c>
       <c r="G5">
-        <v>2.34</v>
+        <v>2.35</v>
       </c>
       <c r="H5">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I5">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T5">
         <v>1.4</v>
@@ -1611,10 +1611,10 @@
         <v>45170</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
         <v>99</v>
@@ -1623,91 +1623,91 @@
         <v>166</v>
       </c>
       <c r="G6">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="H6">
+        <v>3.15</v>
+      </c>
+      <c r="I6">
         <v>3.5</v>
-      </c>
-      <c r="I6">
-        <v>3.3</v>
       </c>
       <c r="J6">
         <v>1.05</v>
       </c>
       <c r="K6">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="L6">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="M6">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="N6">
-        <v>1.69</v>
+        <v>2.38</v>
       </c>
       <c r="O6">
-        <v>1.93</v>
+        <v>1.51</v>
       </c>
       <c r="P6">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="Q6">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="R6">
-        <v>1.66</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="T6">
         <v>1.22</v>
       </c>
       <c r="U6">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="V6">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="W6">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
       <c r="Z6">
-        <v>1.15</v>
+        <v>0.89</v>
       </c>
       <c r="AA6">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AG6">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1718,10 +1718,10 @@
         <v>45170</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
         <v>100</v>
@@ -1730,91 +1730,91 @@
         <v>167</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H7">
-        <v>2.88</v>
+        <v>3.7</v>
       </c>
       <c r="I7">
-        <v>3.19</v>
+        <v>3.85</v>
       </c>
       <c r="J7">
         <v>1.05</v>
       </c>
       <c r="K7">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="L7">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="M7">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N7">
-        <v>2.27</v>
+        <v>1.73</v>
       </c>
       <c r="O7">
-        <v>1.45</v>
+        <v>2.04</v>
       </c>
       <c r="P7">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="Q7">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>1.66</v>
       </c>
       <c r="S7">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="T7">
         <v>1.22</v>
       </c>
       <c r="U7">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V7">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="W7">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="Z7">
-        <v>0.89</v>
+        <v>1.15</v>
       </c>
       <c r="AA7">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1825,7 +1825,7 @@
         <v>45170</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1837,13 +1837,13 @@
         <v>168</v>
       </c>
       <c r="G8">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="H8">
-        <v>3.15</v>
+        <v>3.23</v>
       </c>
       <c r="I8">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="J8">
         <v>1.06</v>
@@ -1858,10 +1858,10 @@
         <v>3.3</v>
       </c>
       <c r="N8">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="O8">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="P8">
         <v>1.41</v>
@@ -1909,7 +1909,7 @@
         <v>2.54</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF8">
         <v>1.45</v>
@@ -1932,7 +1932,7 @@
         <v>45170</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -1944,37 +1944,37 @@
         <v>169</v>
       </c>
       <c r="G9">
-        <v>2.13</v>
+        <v>1.67</v>
       </c>
       <c r="H9">
-        <v>3.45</v>
+        <v>4.02</v>
       </c>
       <c r="I9">
-        <v>2.88</v>
+        <v>4.68</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N9">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="O9">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="R9">
         <v>1.67</v>
@@ -1983,52 +1983,52 @@
         <v>2.1</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="W9">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="X9">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="Y9">
-        <v>1.23</v>
+        <v>1.76</v>
       </c>
       <c r="Z9">
-        <v>1.58</v>
+        <v>1.39</v>
       </c>
       <c r="AA9">
-        <v>2.81</v>
+        <v>3.15</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -2039,7 +2039,7 @@
         <v>45170</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -2051,67 +2051,67 @@
         <v>170</v>
       </c>
       <c r="G10">
-        <v>3.8</v>
+        <v>1.83</v>
       </c>
       <c r="H10">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I10">
-        <v>1.73</v>
+        <v>3.65</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="N10">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="O10">
-        <v>1.99</v>
+        <v>2.29</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R10">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S10">
+        <v>2.2</v>
+      </c>
+      <c r="T10">
+        <v>1.16</v>
+      </c>
+      <c r="U10">
+        <v>1.18</v>
+      </c>
+      <c r="V10">
         <v>2.1</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
       <c r="W10">
+        <v>3</v>
+      </c>
+      <c r="X10">
         <v>0.5</v>
       </c>
-      <c r="X10">
-        <v>3</v>
-      </c>
       <c r="Y10">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="Z10">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="AA10">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>45170</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -2158,91 +2158,91 @@
         <v>171</v>
       </c>
       <c r="G11">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="H11">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>3.6</v>
+        <v>1.63</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="N11">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="O11">
-        <v>2.14</v>
+        <v>2.31</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>3.54</v>
       </c>
       <c r="R11">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S11">
+        <v>2.2</v>
+      </c>
+      <c r="T11">
         <v>2.25</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
       <c r="U11">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W11">
+        <v>0.5</v>
+      </c>
+      <c r="X11">
         <v>3</v>
       </c>
-      <c r="X11">
-        <v>0.5</v>
-      </c>
       <c r="Y11">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="Z11">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="AA11">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -2253,7 +2253,7 @@
         <v>45170</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -2265,67 +2265,67 @@
         <v>172</v>
       </c>
       <c r="G12">
-        <v>1.64</v>
+        <v>2.33</v>
       </c>
       <c r="H12">
+        <v>3.56</v>
+      </c>
+      <c r="I12">
+        <v>2.9</v>
+      </c>
+      <c r="J12">
+        <v>1.05</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>1.25</v>
+      </c>
+      <c r="M12">
         <v>3.75</v>
       </c>
-      <c r="I12">
-        <v>4.45</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
       <c r="N12">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="O12">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="R12">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W12">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="X12">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="Y12">
-        <v>1.76</v>
+        <v>1.23</v>
       </c>
       <c r="Z12">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="AA12">
-        <v>3.15</v>
+        <v>2.81</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>45170</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -2372,13 +2372,13 @@
         <v>173</v>
       </c>
       <c r="G13">
-        <v>5.2</v>
+        <v>5.56</v>
       </c>
       <c r="H13">
-        <v>3.65</v>
+        <v>4.04</v>
       </c>
       <c r="I13">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="J13">
         <v>1.02</v>
@@ -2393,10 +2393,10 @@
         <v>2.9</v>
       </c>
       <c r="N13">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="O13">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="P13">
         <v>1.44</v>
@@ -2435,25 +2435,25 @@
         <v>2.96</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AI13">
         <v>0</v>
@@ -2467,7 +2467,7 @@
         <v>45170</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -2479,13 +2479,13 @@
         <v>174</v>
       </c>
       <c r="G14">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I14">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="J14">
         <v>1.03</v>
@@ -2500,10 +2500,10 @@
         <v>4.75</v>
       </c>
       <c r="N14">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="O14">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="P14">
         <v>1.28</v>
@@ -2574,7 +2574,7 @@
         <v>45170</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -2586,13 +2586,13 @@
         <v>175</v>
       </c>
       <c r="G15">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H15">
         <v>3.45</v>
       </c>
       <c r="I15">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="J15">
         <v>1.04</v>
@@ -2607,10 +2607,10 @@
         <v>4</v>
       </c>
       <c r="N15">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O15">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="P15">
         <v>1.32</v>
@@ -2681,7 +2681,7 @@
         <v>45170</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -2693,13 +2693,13 @@
         <v>176</v>
       </c>
       <c r="G16">
-        <v>1.66</v>
+        <v>1.96</v>
       </c>
       <c r="H16">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="I16">
-        <v>4.45</v>
+        <v>3.35</v>
       </c>
       <c r="J16">
         <v>1.02</v>
@@ -2714,10 +2714,10 @@
         <v>4.1</v>
       </c>
       <c r="N16">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="O16">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="P16">
         <v>1.36</v>
@@ -2788,7 +2788,7 @@
         <v>45170</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17">
         <v>7</v>
@@ -2800,13 +2800,13 @@
         <v>177</v>
       </c>
       <c r="G17">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="H17">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I17">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="J17">
         <v>1.03</v>
@@ -2821,10 +2821,10 @@
         <v>3.95</v>
       </c>
       <c r="N17">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O17">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P17">
         <v>1.3</v>
@@ -2895,7 +2895,7 @@
         <v>45170</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18">
         <v>21</v>
@@ -2907,13 +2907,13 @@
         <v>178</v>
       </c>
       <c r="G18">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="H18">
-        <v>3.5</v>
+        <v>3.48</v>
       </c>
       <c r="I18">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="J18">
         <v>1.05</v>
@@ -2928,10 +2928,10 @@
         <v>3.5</v>
       </c>
       <c r="N18">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="O18">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="P18">
         <v>1.36</v>
@@ -3002,7 +3002,7 @@
         <v>45170</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19">
         <v>22</v>
@@ -3014,13 +3014,13 @@
         <v>179</v>
       </c>
       <c r="G19">
-        <v>2.43</v>
+        <v>2.53</v>
       </c>
       <c r="H19">
-        <v>3.45</v>
+        <v>3.62</v>
       </c>
       <c r="I19">
-        <v>2.53</v>
+        <v>2.64</v>
       </c>
       <c r="J19">
         <v>1.02</v>
@@ -3035,10 +3035,10 @@
         <v>4.75</v>
       </c>
       <c r="N19">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="O19">
-        <v>2.49</v>
+        <v>2.5</v>
       </c>
       <c r="P19">
         <v>1.25</v>
@@ -3077,28 +3077,28 @@
         <v>2.41</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -3109,10 +3109,10 @@
         <v>45170</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
         <v>113</v>
@@ -3121,91 +3121,91 @@
         <v>180</v>
       </c>
       <c r="G20">
-        <v>3.26</v>
+        <v>1.77</v>
       </c>
       <c r="H20">
-        <v>3.21</v>
+        <v>3.65</v>
       </c>
       <c r="I20">
-        <v>2.03</v>
+        <v>4</v>
       </c>
       <c r="J20">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="K20">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L20">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="M20">
+        <v>4.7</v>
+      </c>
+      <c r="N20">
+        <v>1.59</v>
+      </c>
+      <c r="O20">
+        <v>2.21</v>
+      </c>
+      <c r="P20">
+        <v>1.3</v>
+      </c>
+      <c r="Q20">
         <v>3.25</v>
       </c>
-      <c r="N20">
-        <v>2.03</v>
-      </c>
-      <c r="O20">
-        <v>1.78</v>
-      </c>
-      <c r="P20">
-        <v>1.4</v>
-      </c>
-      <c r="Q20">
-        <v>2.75</v>
-      </c>
       <c r="R20">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="S20">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="T20">
-        <v>1.67</v>
+        <v>1.16</v>
       </c>
       <c r="U20">
         <v>1.25</v>
       </c>
       <c r="V20">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="W20">
+        <v>1.5</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>2.08</v>
+      </c>
+      <c r="Z20">
+        <v>0.9</v>
+      </c>
+      <c r="AA20">
+        <v>2.98</v>
+      </c>
+      <c r="AB20">
+        <v>1.45</v>
+      </c>
+      <c r="AC20">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD20">
+        <v>3.18</v>
+      </c>
+      <c r="AE20">
+        <v>1.14</v>
+      </c>
+      <c r="AF20">
+        <v>1.28</v>
+      </c>
+      <c r="AG20">
+        <v>1.51</v>
+      </c>
+      <c r="AH20">
         <v>2</v>
       </c>
-      <c r="X20">
-        <v>3</v>
-      </c>
-      <c r="Y20">
-        <v>0.97</v>
-      </c>
-      <c r="Z20">
-        <v>1.79</v>
-      </c>
-      <c r="AA20">
-        <v>2.76</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
       <c r="AI20">
-        <v>0</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -3216,10 +3216,10 @@
         <v>45170</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
         <v>114</v>
@@ -3228,91 +3228,91 @@
         <v>181</v>
       </c>
       <c r="G21">
-        <v>1.65</v>
+        <v>1.96</v>
       </c>
       <c r="H21">
-        <v>3.7</v>
+        <v>3.46</v>
       </c>
       <c r="I21">
-        <v>4.1</v>
+        <v>4.07</v>
       </c>
       <c r="J21">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="K21">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="L21">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="M21">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="N21">
-        <v>1.56</v>
+        <v>2.02</v>
       </c>
       <c r="O21">
-        <v>2.19</v>
+        <v>1.78</v>
       </c>
       <c r="P21">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="Q21">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="R21">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="S21">
-        <v>2.12</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="U21">
         <v>1.25</v>
       </c>
       <c r="V21">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="W21">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>2.08</v>
+        <v>0.46</v>
       </c>
       <c r="Z21">
-        <v>0.9</v>
+        <v>1.79</v>
       </c>
       <c r="AA21">
-        <v>2.98</v>
+        <v>2.25</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF21">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="AG21">
-        <v>1.51</v>
+        <v>1.88</v>
       </c>
       <c r="AH21">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AI21">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -3323,10 +3323,10 @@
         <v>45170</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
         <v>115</v>
@@ -3335,67 +3335,67 @@
         <v>182</v>
       </c>
       <c r="G22">
-        <v>1.98</v>
+        <v>3.4</v>
       </c>
       <c r="H22">
         <v>3.4</v>
       </c>
       <c r="I22">
-        <v>3.15</v>
+        <v>2.05</v>
       </c>
       <c r="J22">
         <v>1.06</v>
       </c>
       <c r="K22">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L22">
         <v>1.33</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N22">
         <v>2.05</v>
       </c>
       <c r="O22">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="P22">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q22">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="R22">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S22">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="T22">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="U22">
         <v>1.25</v>
       </c>
       <c r="V22">
-        <v>1.83</v>
+        <v>1.25</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y22">
-        <v>0.46</v>
+        <v>0.97</v>
       </c>
       <c r="Z22">
         <v>1.79</v>
       </c>
       <c r="AA22">
-        <v>2.25</v>
+        <v>2.76</v>
       </c>
       <c r="AB22">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="AG22">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AH22">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>45170</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D23">
         <v>6</v>
@@ -3442,37 +3442,37 @@
         <v>183</v>
       </c>
       <c r="G23">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="H23">
-        <v>3.58</v>
+        <v>3.95</v>
       </c>
       <c r="I23">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="N23">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="O23">
-        <v>2.16</v>
+        <v>2.19</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="R23">
         <v>1.67</v>
@@ -3537,7 +3537,7 @@
         <v>45170</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -3549,13 +3549,13 @@
         <v>184</v>
       </c>
       <c r="G24">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="H24">
-        <v>3.4</v>
+        <v>3.43</v>
       </c>
       <c r="I24">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="J24">
         <v>1.04</v>
@@ -3570,10 +3570,10 @@
         <v>3.75</v>
       </c>
       <c r="N24">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="O24">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="P24">
         <v>1.36</v>
@@ -3644,7 +3644,7 @@
         <v>45170</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -3656,13 +3656,13 @@
         <v>185</v>
       </c>
       <c r="G25">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="H25">
-        <v>2.89</v>
+        <v>3.01</v>
       </c>
       <c r="I25">
-        <v>3.05</v>
+        <v>3.11</v>
       </c>
       <c r="J25">
         <v>1.11</v>
@@ -3674,13 +3674,13 @@
         <v>1.52</v>
       </c>
       <c r="M25">
-        <v>2.53</v>
+        <v>2.35</v>
       </c>
       <c r="N25">
-        <v>2.58</v>
+        <v>2.47</v>
       </c>
       <c r="O25">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="P25">
         <v>1.56</v>
@@ -3719,13 +3719,13 @@
         <v>2.16</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AE25">
         <v>1.38</v>
@@ -3740,7 +3740,7 @@
         <v>3.1</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -3751,7 +3751,7 @@
         <v>45170</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -3763,105 +3763,105 @@
         <v>186</v>
       </c>
       <c r="G26">
+        <v>2.25</v>
+      </c>
+      <c r="H26">
+        <v>3.6</v>
+      </c>
+      <c r="I26">
+        <v>2.95</v>
+      </c>
+      <c r="J26">
+        <v>1.03</v>
+      </c>
+      <c r="K26">
+        <v>13</v>
+      </c>
+      <c r="L26">
+        <v>1.25</v>
+      </c>
+      <c r="M26">
+        <v>3.75</v>
+      </c>
+      <c r="N26">
+        <v>1.8</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <v>1.33</v>
+      </c>
+      <c r="Q26">
+        <v>3.1</v>
+      </c>
+      <c r="R26">
+        <v>1.65</v>
+      </c>
+      <c r="S26">
+        <v>2.15</v>
+      </c>
+      <c r="T26">
         <v>1.4</v>
       </c>
-      <c r="H26">
-        <v>5</v>
-      </c>
-      <c r="I26">
-        <v>7</v>
-      </c>
-      <c r="J26">
-        <v>1.02</v>
-      </c>
-      <c r="K26">
-        <v>19</v>
-      </c>
-      <c r="L26">
-        <v>1.16</v>
-      </c>
-      <c r="M26">
-        <v>5.5</v>
-      </c>
-      <c r="N26">
-        <v>1.52</v>
-      </c>
-      <c r="O26">
-        <v>2.55</v>
-      </c>
-      <c r="P26">
-        <v>1.24</v>
-      </c>
-      <c r="Q26">
-        <v>3.7</v>
-      </c>
-      <c r="R26">
-        <v>1.72</v>
-      </c>
-      <c r="S26">
-        <v>2.1</v>
-      </c>
-      <c r="T26">
-        <v>1.09</v>
-      </c>
       <c r="U26">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="V26">
-        <v>3</v>
+        <v>1.63</v>
       </c>
       <c r="W26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26">
         <v>0</v>
       </c>
       <c r="Y26">
+        <v>1.82</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>1.82</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>1.36</v>
+      </c>
+      <c r="AF26">
+        <v>1.67</v>
+      </c>
+      <c r="AG26">
         <v>2.15</v>
       </c>
-      <c r="Z26">
-        <v>1.66</v>
-      </c>
-      <c r="AA26">
-        <v>3.81</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
       <c r="AH26">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2">
         <v>45170</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
         <v>120</v>
@@ -3870,105 +3870,105 @@
         <v>187</v>
       </c>
       <c r="G27">
-        <v>2.25</v>
+        <v>2.86</v>
       </c>
       <c r="H27">
-        <v>3.6</v>
+        <v>3.24</v>
       </c>
       <c r="I27">
-        <v>2.95</v>
+        <v>2.35</v>
       </c>
       <c r="J27">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K27">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L27">
+        <v>1.33</v>
+      </c>
+      <c r="M27">
+        <v>3.25</v>
+      </c>
+      <c r="N27">
+        <v>1.99</v>
+      </c>
+      <c r="O27">
+        <v>1.76</v>
+      </c>
+      <c r="P27">
+        <v>1.4</v>
+      </c>
+      <c r="Q27">
+        <v>2.75</v>
+      </c>
+      <c r="R27">
+        <v>1.8</v>
+      </c>
+      <c r="S27">
+        <v>1.91</v>
+      </c>
+      <c r="T27">
+        <v>1.5</v>
+      </c>
+      <c r="U27">
+        <v>1.3</v>
+      </c>
+      <c r="V27">
+        <v>1.4</v>
+      </c>
+      <c r="W27">
+        <v>2</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>1.1</v>
+      </c>
+      <c r="Z27">
         <v>1.25</v>
       </c>
-      <c r="M27">
-        <v>3.75</v>
-      </c>
-      <c r="N27">
-        <v>1.8</v>
-      </c>
-      <c r="O27">
-        <v>2</v>
-      </c>
-      <c r="P27">
-        <v>1.33</v>
-      </c>
-      <c r="Q27">
-        <v>3.1</v>
-      </c>
-      <c r="R27">
-        <v>1.65</v>
-      </c>
-      <c r="S27">
-        <v>2.15</v>
-      </c>
-      <c r="T27">
-        <v>1.4</v>
-      </c>
-      <c r="U27">
-        <v>1.25</v>
-      </c>
-      <c r="V27">
-        <v>1.63</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>1.82</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
       <c r="AA27">
-        <v>1.82</v>
+        <v>2.35</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2">
         <v>45170</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E28" t="s">
         <v>121</v>
@@ -3977,76 +3977,76 @@
         <v>188</v>
       </c>
       <c r="G28">
-        <v>2.86</v>
+        <v>4.15</v>
       </c>
       <c r="H28">
-        <v>3.24</v>
+        <v>4</v>
       </c>
       <c r="I28">
-        <v>2.35</v>
+        <v>1.67</v>
       </c>
       <c r="J28">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="K28">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="L28">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="M28">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N28">
-        <v>1.99</v>
+        <v>1.62</v>
       </c>
       <c r="O28">
-        <v>1.76</v>
+        <v>2.25</v>
       </c>
       <c r="P28">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="Q28">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="R28">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="S28">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="T28">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="V28">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="W28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X28">
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="Z28">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AA28">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="AB28">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD28">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AE28">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>45170</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -4084,52 +4084,52 @@
         <v>189</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>3.67</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>5.28</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -4138,48 +4138,48 @@
         <v>3</v>
       </c>
       <c r="Y29">
-        <v>2.98</v>
+        <v>1.42</v>
       </c>
       <c r="Z29">
-        <v>1.44</v>
+        <v>2.12</v>
       </c>
       <c r="AA29">
-        <v>4.42</v>
+        <v>3.54</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="30" spans="1:35">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B30" s="2">
         <v>45170</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D30">
         <v>4</v>
@@ -4191,102 +4191,102 @@
         <v>190</v>
       </c>
       <c r="G30">
-        <v>2.16</v>
+        <v>1.96</v>
       </c>
       <c r="H30">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I30">
-        <v>2.64</v>
+        <v>3.05</v>
       </c>
       <c r="J30">
         <v>1.02</v>
       </c>
       <c r="K30">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="L30">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="M30">
-        <v>5.28</v>
+        <v>4.8</v>
       </c>
       <c r="N30">
-        <v>1.39</v>
+        <v>1.59</v>
       </c>
       <c r="O30">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="P30">
         <v>1.25</v>
       </c>
       <c r="Q30">
-        <v>3.72</v>
+        <v>3.75</v>
       </c>
       <c r="R30">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="S30">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="T30">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="U30">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="V30">
-        <v>1.58</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>1.42</v>
+        <v>1.16</v>
       </c>
       <c r="Z30">
-        <v>2.12</v>
+        <v>1.49</v>
       </c>
       <c r="AA30">
-        <v>3.54</v>
+        <v>2.65</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2">
         <v>45170</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -4298,102 +4298,102 @@
         <v>191</v>
       </c>
       <c r="G31">
-        <v>2.19</v>
+        <v>2.3</v>
       </c>
       <c r="H31">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I31">
-        <v>2.71</v>
+        <v>2.85</v>
       </c>
       <c r="J31">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K31">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="L31">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="M31">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="N31">
+        <v>1.75</v>
+      </c>
+      <c r="O31">
+        <v>2.05</v>
+      </c>
+      <c r="P31">
+        <v>1.35</v>
+      </c>
+      <c r="Q31">
+        <v>3.05</v>
+      </c>
+      <c r="R31">
+        <v>1.62</v>
+      </c>
+      <c r="S31">
+        <v>2.25</v>
+      </c>
+      <c r="T31">
+        <v>1.42</v>
+      </c>
+      <c r="U31">
+        <v>1.25</v>
+      </c>
+      <c r="V31">
+        <v>1.62</v>
+      </c>
+      <c r="W31">
+        <v>1.5</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
         <v>1.47</v>
       </c>
-      <c r="O31">
-        <v>2.45</v>
-      </c>
-      <c r="P31">
-        <v>1.25</v>
-      </c>
-      <c r="Q31">
-        <v>3.75</v>
-      </c>
-      <c r="R31">
-        <v>1.5</v>
-      </c>
-      <c r="S31">
-        <v>2.5</v>
-      </c>
-      <c r="T31">
-        <v>1.33</v>
-      </c>
-      <c r="U31">
-        <v>1.22</v>
-      </c>
-      <c r="V31">
-        <v>1.85</v>
-      </c>
-      <c r="W31">
-        <v>1</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>1.16</v>
-      </c>
       <c r="Z31">
-        <v>1.49</v>
+        <v>1.15</v>
       </c>
       <c r="AA31">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="AB31">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD31">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="AE31">
         <v>1.25</v>
       </c>
       <c r="AF31">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AG31">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="AH31">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="AI31">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="32" spans="1:35">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B32" s="2">
         <v>45170</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D32">
         <v>4</v>
@@ -4405,67 +4405,67 @@
         <v>192</v>
       </c>
       <c r="G32">
-        <v>2.26</v>
+        <v>1.78</v>
       </c>
       <c r="H32">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="I32">
-        <v>2.72</v>
+        <v>3.88</v>
       </c>
       <c r="J32">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L32">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="M32">
-        <v>6.05</v>
+        <v>5.4</v>
       </c>
       <c r="N32">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="O32">
-        <v>2.88</v>
+        <v>2.41</v>
       </c>
       <c r="P32">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="Q32">
-        <v>4.15</v>
+        <v>3.7</v>
       </c>
       <c r="R32">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="S32">
-        <v>3.04</v>
+        <v>2.5</v>
       </c>
       <c r="T32">
-        <v>1.47</v>
+        <v>1.22</v>
       </c>
       <c r="U32">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="V32">
-        <v>1.65</v>
+        <v>1.99</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="Z32">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AA32">
-        <v>1.47</v>
+        <v>4.42</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -4500,7 +4500,7 @@
         <v>45170</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D33">
         <v>4</v>
@@ -4512,67 +4512,67 @@
         <v>193</v>
       </c>
       <c r="G33">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H33">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="I33">
-        <v>2.85</v>
+        <v>7</v>
       </c>
       <c r="J33">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K33">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L33">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="M33">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N33">
-        <v>1.75</v>
+        <v>1.52</v>
       </c>
       <c r="O33">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="P33">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="Q33">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="R33">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="S33">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="T33">
-        <v>1.42</v>
+        <v>1.09</v>
       </c>
       <c r="U33">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="V33">
-        <v>1.62</v>
+        <v>3</v>
       </c>
       <c r="W33">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="X33">
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>1.47</v>
+        <v>2.15</v>
       </c>
       <c r="Z33">
-        <v>1.15</v>
+        <v>1.66</v>
       </c>
       <c r="AA33">
-        <v>2.62</v>
+        <v>3.81</v>
       </c>
       <c r="AB33">
         <v>0</v>
@@ -4584,19 +4584,19 @@
         <v>0</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -4607,7 +4607,7 @@
         <v>45170</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -4691,19 +4691,19 @@
         <v>0</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AG34">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="35" spans="1:35">
@@ -4714,7 +4714,7 @@
         <v>45170</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D35">
         <v>4</v>
@@ -4789,28 +4789,28 @@
         <v>2.99</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="36" spans="1:35">
@@ -4821,7 +4821,7 @@
         <v>45170</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -4833,13 +4833,13 @@
         <v>196</v>
       </c>
       <c r="G36">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="H36">
         <v>3.1</v>
       </c>
       <c r="I36">
-        <v>2.42</v>
+        <v>2.93</v>
       </c>
       <c r="J36">
         <v>1.08</v>
@@ -4857,7 +4857,7 @@
         <v>2.25</v>
       </c>
       <c r="O36">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P36">
         <v>1.5</v>
@@ -4917,7 +4917,7 @@
         <v>3.5</v>
       </c>
       <c r="AI36">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="37" spans="1:35">
@@ -4928,7 +4928,7 @@
         <v>45170</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -4940,13 +4940,13 @@
         <v>197</v>
       </c>
       <c r="G37">
-        <v>2.66</v>
+        <v>2.82</v>
       </c>
       <c r="H37">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I37">
-        <v>2.31</v>
+        <v>2.25</v>
       </c>
       <c r="J37">
         <v>1.04</v>
@@ -4961,10 +4961,10 @@
         <v>4.12</v>
       </c>
       <c r="N37">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="O37">
-        <v>2.2</v>
+        <v>2.37</v>
       </c>
       <c r="P37">
         <v>1.38</v>
@@ -5003,13 +5003,13 @@
         <v>2.25</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AE37">
         <v>1.24</v>
@@ -5035,7 +5035,7 @@
         <v>45170</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -5047,13 +5047,13 @@
         <v>198</v>
       </c>
       <c r="G38">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H38">
         <v>3.5</v>
       </c>
       <c r="I38">
-        <v>2.59</v>
+        <v>2.82</v>
       </c>
       <c r="J38">
         <v>1.05</v>
@@ -5068,10 +5068,10 @@
         <v>4.22</v>
       </c>
       <c r="N38">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="O38">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="P38">
         <v>1.38</v>
@@ -5110,13 +5110,13 @@
         <v>1.98</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AE38">
         <v>1.29</v>
@@ -5142,7 +5142,7 @@
         <v>45170</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -5154,13 +5154,13 @@
         <v>199</v>
       </c>
       <c r="G39">
-        <v>4.15</v>
+        <v>3.24</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>3.76</v>
       </c>
       <c r="I39">
-        <v>1.67</v>
+        <v>2.07</v>
       </c>
       <c r="J39">
         <v>1.02</v>
@@ -5169,52 +5169,52 @@
         <v>17</v>
       </c>
       <c r="L39">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="M39">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="N39">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="O39">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P39">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="Q39">
-        <v>3.5</v>
+        <v>3.42</v>
       </c>
       <c r="R39">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="S39">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U39">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="V39">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="W39">
         <v>3</v>
       </c>
       <c r="X39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y39">
-        <v>1.12</v>
+        <v>0.95</v>
       </c>
       <c r="Z39">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AA39">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AB39">
         <v>0</v>
@@ -5226,19 +5226,19 @@
         <v>0</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF39">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AG39">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AI39">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="40" spans="1:35">
@@ -5249,7 +5249,7 @@
         <v>45170</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D40">
         <v>4</v>
@@ -5261,67 +5261,67 @@
         <v>200</v>
       </c>
       <c r="G40">
-        <v>3.24</v>
+        <v>2.26</v>
       </c>
       <c r="H40">
-        <v>3.76</v>
+        <v>4.05</v>
       </c>
       <c r="I40">
-        <v>2.07</v>
+        <v>2.72</v>
       </c>
       <c r="J40">
         <v>1.02</v>
       </c>
       <c r="K40">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L40">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="M40">
-        <v>4.4</v>
+        <v>6.05</v>
       </c>
       <c r="N40">
-        <v>1.63</v>
+        <v>1.35</v>
       </c>
       <c r="O40">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="P40">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="Q40">
-        <v>3.42</v>
+        <v>4.15</v>
       </c>
       <c r="R40">
-        <v>1.54</v>
+        <v>1.35</v>
       </c>
       <c r="S40">
-        <v>2.38</v>
+        <v>3.04</v>
       </c>
       <c r="T40">
-        <v>1.75</v>
+        <v>1.47</v>
       </c>
       <c r="U40">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="V40">
-        <v>1.34</v>
+        <v>1.65</v>
       </c>
       <c r="W40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
       <c r="AA40">
-        <v>2.22</v>
+        <v>1.47</v>
       </c>
       <c r="AB40">
         <v>0</v>
@@ -5333,19 +5333,19 @@
         <v>0</v>
       </c>
       <c r="AE40">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF40">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AG40">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AH40">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AI40">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="41" spans="1:35">
@@ -5356,7 +5356,7 @@
         <v>45170</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D41">
         <v>6</v>
@@ -5368,37 +5368,37 @@
         <v>201</v>
       </c>
       <c r="G41">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H41">
-        <v>3.3</v>
+        <v>3.95</v>
       </c>
       <c r="I41">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="N41">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="O41">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="R41">
         <v>1.57</v>
@@ -5463,7 +5463,7 @@
         <v>45170</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D42">
         <v>6</v>
@@ -5475,43 +5475,43 @@
         <v>202</v>
       </c>
       <c r="G42">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="H42">
-        <v>4.11</v>
+        <v>6</v>
       </c>
       <c r="I42">
-        <v>6.1</v>
+        <v>10</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N42">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="O42">
-        <v>2.48</v>
+        <v>2.73</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="R42">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S42">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T42">
         <v>1.04</v>
@@ -5564,13 +5564,13 @@
     </row>
     <row r="43" spans="1:35">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" s="2">
         <v>45170</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43">
         <v>8</v>
@@ -5582,13 +5582,13 @@
         <v>203</v>
       </c>
       <c r="G43">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H43">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="I43">
-        <v>3.55</v>
+        <v>5.25</v>
       </c>
       <c r="J43">
         <v>1.03</v>
@@ -5603,10 +5603,10 @@
         <v>3.1</v>
       </c>
       <c r="N43">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="O43">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="P43">
         <v>1.43</v>
@@ -5645,42 +5645,42 @@
         <v>3.13</v>
       </c>
       <c r="AB43">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AC43">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD43">
-        <v>0</v>
+        <v>4.09</v>
       </c>
       <c r="AE43">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF43">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG43">
         <v>1.98</v>
       </c>
       <c r="AH43">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AI43">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="44" spans="1:35">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B44" s="2">
         <v>45170</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44" t="s">
         <v>137</v>
@@ -5689,105 +5689,105 @@
         <v>204</v>
       </c>
       <c r="G44">
-        <v>1.9</v>
+        <v>2.33</v>
       </c>
       <c r="H44">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I44">
-        <v>3.5</v>
+        <v>3.13</v>
       </c>
       <c r="J44">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K44">
         <v>7.5</v>
       </c>
       <c r="L44">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="M44">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N44">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="O44">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="P44">
+        <v>1.43</v>
+      </c>
+      <c r="Q44">
+        <v>2.65</v>
+      </c>
+      <c r="R44">
+        <v>1.8</v>
+      </c>
+      <c r="S44">
+        <v>1.95</v>
+      </c>
+      <c r="T44">
+        <v>1.33</v>
+      </c>
+      <c r="U44">
+        <v>1.25</v>
+      </c>
+      <c r="V44">
+        <v>1.57</v>
+      </c>
+      <c r="W44">
         <v>1.5</v>
       </c>
-      <c r="Q44">
-        <v>2.5</v>
-      </c>
-      <c r="R44">
-        <v>1.91</v>
-      </c>
-      <c r="S44">
-        <v>1.8</v>
-      </c>
-      <c r="T44">
-        <v>1.2</v>
-      </c>
-      <c r="U44">
-        <v>1.28</v>
-      </c>
-      <c r="V44">
-        <v>1.8</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
       <c r="X44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y44">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="Z44">
-        <v>1.31</v>
+        <v>1.09</v>
       </c>
       <c r="AA44">
-        <v>2.97</v>
+        <v>2.66</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AC44">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="AE44">
         <v>0</v>
       </c>
       <c r="AF44">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AG44">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AH44">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AI44">
-        <v>0</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="45" spans="1:35">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2">
         <v>45170</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D45">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E45" t="s">
         <v>138</v>
@@ -5796,105 +5796,105 @@
         <v>205</v>
       </c>
       <c r="G45">
-        <v>2.37</v>
+        <v>1.18</v>
       </c>
       <c r="H45">
-        <v>3.1</v>
+        <v>6.4</v>
       </c>
       <c r="I45">
-        <v>2.97</v>
+        <v>9.9</v>
       </c>
       <c r="J45">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="K45">
-        <v>7.5</v>
+        <v>29</v>
       </c>
       <c r="L45">
+        <v>1.1</v>
+      </c>
+      <c r="M45">
+        <v>7</v>
+      </c>
+      <c r="N45">
         <v>1.33</v>
       </c>
-      <c r="M45">
-        <v>3.1</v>
-      </c>
-      <c r="N45">
-        <v>2.03</v>
-      </c>
       <c r="O45">
-        <v>1.69</v>
+        <v>3.15</v>
       </c>
       <c r="P45">
-        <v>1.43</v>
+        <v>1.2</v>
       </c>
       <c r="Q45">
-        <v>2.65</v>
+        <v>4.33</v>
       </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S45">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T45">
-        <v>1.33</v>
+        <v>1.06</v>
       </c>
       <c r="U45">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="V45">
-        <v>1.57</v>
+        <v>4.1</v>
       </c>
       <c r="W45">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="X45">
         <v>0</v>
       </c>
       <c r="Y45">
-        <v>1.57</v>
+        <v>1.23</v>
       </c>
       <c r="Z45">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="AA45">
-        <v>2.66</v>
+        <v>2.28</v>
       </c>
       <c r="AB45">
-        <v>1.64</v>
+        <v>1.23</v>
       </c>
       <c r="AC45">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AD45">
-        <v>2.66</v>
+        <v>5.6</v>
       </c>
       <c r="AE45">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF45">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AG45">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="AH45">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="AI45">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="46" spans="1:35">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B46" s="2">
         <v>45170</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E46" t="s">
         <v>139</v>
@@ -5903,105 +5903,105 @@
         <v>206</v>
       </c>
       <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>3.5</v>
+      </c>
+      <c r="I46">
+        <v>3.3</v>
+      </c>
+      <c r="J46">
+        <v>1.01</v>
+      </c>
+      <c r="K46">
+        <v>10.5</v>
+      </c>
+      <c r="L46">
         <v>1.18</v>
       </c>
-      <c r="H46">
-        <v>6.3</v>
-      </c>
-      <c r="I46">
-        <v>11.6</v>
-      </c>
-      <c r="J46">
-        <v>1.02</v>
-      </c>
-      <c r="K46">
-        <v>29</v>
-      </c>
-      <c r="L46">
-        <v>1.1</v>
-      </c>
       <c r="M46">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N46">
-        <v>1.36</v>
+        <v>1.72</v>
       </c>
       <c r="O46">
-        <v>2.83</v>
+        <v>2.05</v>
       </c>
       <c r="P46">
+        <v>1.33</v>
+      </c>
+      <c r="Q46">
+        <v>3.15</v>
+      </c>
+      <c r="R46">
+        <v>1.67</v>
+      </c>
+      <c r="S46">
+        <v>2.1</v>
+      </c>
+      <c r="T46">
         <v>1.2</v>
       </c>
-      <c r="Q46">
-        <v>4.33</v>
-      </c>
-      <c r="R46">
-        <v>1.75</v>
-      </c>
-      <c r="S46">
-        <v>2</v>
-      </c>
-      <c r="T46">
-        <v>1.06</v>
-      </c>
       <c r="U46">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="V46">
-        <v>4.1</v>
+        <v>1.83</v>
       </c>
       <c r="W46">
         <v>3</v>
       </c>
       <c r="X46">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="Y46">
-        <v>1.23</v>
+        <v>2.25</v>
       </c>
       <c r="Z46">
-        <v>1.05</v>
+        <v>1.65</v>
       </c>
       <c r="AA46">
-        <v>2.28</v>
+        <v>3.9</v>
       </c>
       <c r="AB46">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AC46">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AD46">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="AE46">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AF46">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AG46">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="AH46">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="AI46">
-        <v>2.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:35">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B47" s="2">
         <v>45170</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D47">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E47" t="s">
         <v>140</v>
@@ -6010,88 +6010,88 @@
         <v>207</v>
       </c>
       <c r="G47">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H47">
-        <v>3.45</v>
+        <v>3.32</v>
       </c>
       <c r="I47">
-        <v>3.25</v>
+        <v>3.98</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="N47">
-        <v>1.71</v>
+        <v>2.2</v>
       </c>
       <c r="O47">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R47">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="S47">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V47">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X47">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="Y47">
-        <v>2.25</v>
+        <v>1.66</v>
       </c>
       <c r="Z47">
-        <v>1.65</v>
+        <v>1.31</v>
       </c>
       <c r="AA47">
-        <v>3.9</v>
+        <v>2.97</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AC47">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD47">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AE47">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF47">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AG47">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AH47">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AI47">
         <v>0</v>
@@ -6099,16 +6099,16 @@
     </row>
     <row r="48" spans="1:35">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B48" s="2">
         <v>45170</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E48" t="s">
         <v>141</v>
@@ -6117,91 +6117,91 @@
         <v>208</v>
       </c>
       <c r="G48">
-        <v>2.16</v>
+        <v>1.7</v>
       </c>
       <c r="H48">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="I48">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="J48">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>2.26</v>
+        <v>1.75</v>
       </c>
       <c r="O48">
-        <v>1.55</v>
+        <v>1.97</v>
       </c>
       <c r="P48">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="Q48">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R48">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S48">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T48">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="U48">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="V48">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="W48">
-        <v>1</v>
+        <v>2.14</v>
       </c>
       <c r="X48">
-        <v>3</v>
+        <v>1.43</v>
       </c>
       <c r="Y48">
-        <v>1.42</v>
+        <v>1.91</v>
       </c>
       <c r="Z48">
-        <v>1.37</v>
+        <v>1.19</v>
       </c>
       <c r="AA48">
-        <v>2.79</v>
+        <v>3.1</v>
       </c>
       <c r="AB48">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AC48">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD48">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="AE48">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AF48">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AG48">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="AH48">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AI48">
-        <v>3.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:35">
@@ -6212,10 +6212,10 @@
         <v>45170</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E49" t="s">
         <v>142</v>
@@ -6224,91 +6224,91 @@
         <v>209</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>3.33</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V49">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W49">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="X49">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="Y49">
-        <v>3.12</v>
+        <v>1.18</v>
       </c>
       <c r="Z49">
-        <v>0.89</v>
+        <v>1.35</v>
       </c>
       <c r="AA49">
-        <v>4.01</v>
+        <v>2.53</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AC49">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AD49">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AE49">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF49">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AG49">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AH49">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AI49">
-        <v>0</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="50" spans="1:35">
@@ -6319,10 +6319,10 @@
         <v>45170</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E50" t="s">
         <v>143</v>
@@ -6331,91 +6331,91 @@
         <v>210</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>4.93</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>4.84</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="R50">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="W50">
-        <v>0.5</v>
+        <v>1.14</v>
       </c>
       <c r="X50">
-        <v>2</v>
+        <v>0.14</v>
       </c>
       <c r="Y50">
-        <v>1.18</v>
+        <v>1.67</v>
       </c>
       <c r="Z50">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA50">
-        <v>2.16</v>
+        <v>2.61</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AC50">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE50">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF50">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AG50">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AH50">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AI50">
-        <v>0</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="51" spans="1:35">
@@ -6426,10 +6426,10 @@
         <v>45170</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E51" t="s">
         <v>144</v>
@@ -6438,102 +6438,102 @@
         <v>211</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V51">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="W51">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="X51">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="Y51">
-        <v>1.77</v>
+        <v>1.18</v>
       </c>
       <c r="Z51">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="AA51">
-        <v>3.11</v>
+        <v>2.6</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AC51">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AD51">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AE51">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AF51">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AG51">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AH51">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AI51">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="52" spans="1:35">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" s="2">
         <v>45170</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D52">
         <v>29</v>
@@ -6545,105 +6545,105 @@
         <v>212</v>
       </c>
       <c r="G52">
-        <v>1.63</v>
+        <v>2.99</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>3.23</v>
       </c>
       <c r="I52">
-        <v>4.75</v>
+        <v>2.19</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="N52">
+        <v>1.87</v>
+      </c>
+      <c r="O52">
+        <v>1.84</v>
+      </c>
+      <c r="P52">
+        <v>1.41</v>
+      </c>
+      <c r="Q52">
+        <v>2.7</v>
+      </c>
+      <c r="R52">
         <v>1.75</v>
       </c>
-      <c r="O52">
+      <c r="S52">
         <v>2</v>
       </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
       <c r="T52">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="U52">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V52">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W52">
-        <v>2.14</v>
+        <v>1.86</v>
       </c>
       <c r="X52">
-        <v>1.43</v>
+        <v>1.69</v>
       </c>
       <c r="Y52">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="Z52">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="AA52">
-        <v>3.1</v>
+        <v>2.79</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AC52">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AD52">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AE52">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF52">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AG52">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AH52">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AI52">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="53" spans="1:35">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B53" s="2">
         <v>45170</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D53">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E53" t="s">
         <v>146</v>
@@ -6652,91 +6652,91 @@
         <v>213</v>
       </c>
       <c r="G53">
+        <v>2.61</v>
+      </c>
+      <c r="H53">
+        <v>3.01</v>
+      </c>
+      <c r="I53">
+        <v>2.57</v>
+      </c>
+      <c r="J53">
+        <v>1.08</v>
+      </c>
+      <c r="K53">
+        <v>8.5</v>
+      </c>
+      <c r="L53">
+        <v>1.42</v>
+      </c>
+      <c r="M53">
+        <v>2.9</v>
+      </c>
+      <c r="N53">
+        <v>2.25</v>
+      </c>
+      <c r="O53">
+        <v>1.57</v>
+      </c>
+      <c r="P53">
+        <v>1.5</v>
+      </c>
+      <c r="Q53">
+        <v>2.5</v>
+      </c>
+      <c r="R53">
+        <v>1.95</v>
+      </c>
+      <c r="S53">
+        <v>1.8</v>
+      </c>
+      <c r="T53">
+        <v>1.46</v>
+      </c>
+      <c r="U53">
+        <v>1.34</v>
+      </c>
+      <c r="V53">
+        <v>1.44</v>
+      </c>
+      <c r="W53">
+        <v>1</v>
+      </c>
+      <c r="X53">
         <v>3</v>
       </c>
-      <c r="H53">
-        <v>3.4</v>
-      </c>
-      <c r="I53">
-        <v>2.25</v>
-      </c>
-      <c r="J53">
-        <v>1.06</v>
-      </c>
-      <c r="K53">
-        <v>8</v>
-      </c>
-      <c r="L53">
-        <v>1.3</v>
-      </c>
-      <c r="M53">
-        <v>3.3</v>
-      </c>
-      <c r="N53">
-        <v>1.8</v>
-      </c>
-      <c r="O53">
-        <v>1.95</v>
-      </c>
-      <c r="P53">
-        <v>1.41</v>
-      </c>
-      <c r="Q53">
-        <v>2.7</v>
-      </c>
-      <c r="R53">
-        <v>1.75</v>
-      </c>
-      <c r="S53">
-        <v>2</v>
-      </c>
-      <c r="T53">
-        <v>1.66</v>
-      </c>
-      <c r="U53">
-        <v>1.25</v>
-      </c>
-      <c r="V53">
-        <v>1.35</v>
-      </c>
-      <c r="W53">
-        <v>1.86</v>
-      </c>
-      <c r="X53">
-        <v>1.69</v>
-      </c>
       <c r="Y53">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="Z53">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="AA53">
         <v>2.79</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AC53">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD53">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AE53">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF53">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AG53">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AH53">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AI53">
-        <v>0</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="54" spans="1:35">
@@ -6747,10 +6747,10 @@
         <v>45170</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D54">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E54" t="s">
         <v>147</v>
@@ -6759,67 +6759,67 @@
         <v>214</v>
       </c>
       <c r="G54">
-        <v>1.24</v>
+        <v>1.02</v>
       </c>
       <c r="H54">
-        <v>5.2</v>
+        <v>11</v>
       </c>
       <c r="I54">
-        <v>10.5</v>
+        <v>26</v>
       </c>
       <c r="J54">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="K54">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="L54">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="M54">
-        <v>4.84</v>
+        <v>13</v>
       </c>
       <c r="N54">
-        <v>1.59</v>
+        <v>1.06</v>
       </c>
       <c r="O54">
-        <v>2.13</v>
+        <v>10</v>
       </c>
       <c r="P54">
-        <v>1.29</v>
+        <v>1.06</v>
       </c>
       <c r="Q54">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="R54">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="S54">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="T54">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="U54">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="V54">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="W54">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="X54">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="Y54">
-        <v>1.67</v>
+        <v>3.12</v>
       </c>
       <c r="Z54">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AA54">
-        <v>2.61</v>
+        <v>4.01</v>
       </c>
       <c r="AB54">
         <v>0</v>
@@ -6837,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="AG54">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AH54">
         <v>0</v>
@@ -6848,16 +6848,16 @@
     </row>
     <row r="55" spans="1:35">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B55" s="2">
         <v>45170</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D55">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E55" t="s">
         <v>148</v>
@@ -6866,105 +6866,105 @@
         <v>215</v>
       </c>
       <c r="G55">
-        <v>2.85</v>
+        <v>1.67</v>
       </c>
       <c r="H55">
-        <v>3.5</v>
+        <v>3.98</v>
       </c>
       <c r="I55">
-        <v>2.3</v>
+        <v>3.83</v>
       </c>
       <c r="J55">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="K55">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L55">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="M55">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N55">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="O55">
-        <v>1.95</v>
+        <v>2.19</v>
       </c>
       <c r="P55">
+        <v>1.24</v>
+      </c>
+      <c r="Q55">
+        <v>3.7</v>
+      </c>
+      <c r="R55">
+        <v>1.55</v>
+      </c>
+      <c r="S55">
+        <v>2.4</v>
+      </c>
+      <c r="T55">
+        <v>1.2</v>
+      </c>
+      <c r="U55">
+        <v>1.18</v>
+      </c>
+      <c r="V55">
+        <v>2.2</v>
+      </c>
+      <c r="W55">
+        <v>0.5</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>1.23</v>
+      </c>
+      <c r="Z55">
+        <v>0.78</v>
+      </c>
+      <c r="AA55">
+        <v>2.01</v>
+      </c>
+      <c r="AB55">
         <v>1.4</v>
       </c>
-      <c r="Q55">
-        <v>2.75</v>
-      </c>
-      <c r="R55">
-        <v>1.7</v>
-      </c>
-      <c r="S55">
-        <v>2.05</v>
-      </c>
-      <c r="T55">
-        <v>1.68</v>
-      </c>
-      <c r="U55">
-        <v>1.25</v>
-      </c>
-      <c r="V55">
-        <v>1.35</v>
-      </c>
-      <c r="W55">
+      <c r="AC55">
+        <v>9.5</v>
+      </c>
+      <c r="AD55">
+        <v>3.4</v>
+      </c>
+      <c r="AE55">
+        <v>1.13</v>
+      </c>
+      <c r="AF55">
         <v>1.29</v>
       </c>
-      <c r="X55">
-        <v>0.86</v>
-      </c>
-      <c r="Y55">
-        <v>1.18</v>
-      </c>
-      <c r="Z55">
-        <v>1.35</v>
-      </c>
-      <c r="AA55">
-        <v>2.53</v>
-      </c>
-      <c r="AB55">
-        <v>0</v>
-      </c>
-      <c r="AC55">
-        <v>0</v>
-      </c>
-      <c r="AD55">
-        <v>0</v>
-      </c>
-      <c r="AE55">
-        <v>0</v>
-      </c>
-      <c r="AF55">
-        <v>0</v>
-      </c>
       <c r="AG55">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AH55">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AI55">
-        <v>0</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="56" spans="1:35">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" s="2">
         <v>45170</v>
       </c>
       <c r="C56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E56" t="s">
         <v>149</v>
@@ -6973,91 +6973,91 @@
         <v>216</v>
       </c>
       <c r="G56">
-        <v>1.73</v>
+        <v>2.5</v>
       </c>
       <c r="H56">
-        <v>3.7</v>
+        <v>3.21</v>
       </c>
       <c r="I56">
-        <v>3.95</v>
+        <v>2.84</v>
       </c>
       <c r="J56">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="K56">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="L56">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
       <c r="M56">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N56">
-        <v>1.57</v>
+        <v>1.96</v>
       </c>
       <c r="O56">
-        <v>2.16</v>
+        <v>1.86</v>
       </c>
       <c r="P56">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="Q56">
-        <v>3.7</v>
+        <v>2.65</v>
       </c>
       <c r="R56">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="S56">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="T56">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
       <c r="U56">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="V56">
-        <v>2.2</v>
+        <v>1.42</v>
       </c>
       <c r="W56">
         <v>0.5</v>
       </c>
       <c r="X56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y56">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="Z56">
-        <v>0.78</v>
+        <v>0.98</v>
       </c>
       <c r="AA56">
-        <v>2.01</v>
+        <v>2.16</v>
       </c>
       <c r="AB56">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AC56">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="AD56">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AE56">
         <v>0</v>
       </c>
       <c r="AF56">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AG56">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AH56">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AI56">
-        <v>2.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:35">
@@ -7068,10 +7068,10 @@
         <v>45170</v>
       </c>
       <c r="C57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D57">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E57" t="s">
         <v>150</v>
@@ -7080,67 +7080,67 @@
         <v>217</v>
       </c>
       <c r="G57">
-        <v>2.85</v>
+        <v>3.91</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="I57">
-        <v>2.6</v>
+        <v>1.76</v>
       </c>
       <c r="J57">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="K57">
-        <v>6.5</v>
+        <v>10.5</v>
       </c>
       <c r="L57">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="M57">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N57">
-        <v>2.3</v>
+        <v>1.76</v>
       </c>
       <c r="O57">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="P57">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="Q57">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="R57">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="S57">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T57">
-        <v>1.47</v>
+        <v>1.78</v>
       </c>
       <c r="U57">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="V57">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="W57">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="X57">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="Y57">
-        <v>1.18</v>
+        <v>1.77</v>
       </c>
       <c r="Z57">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="AA57">
-        <v>2.6</v>
+        <v>3.11</v>
       </c>
       <c r="AB57">
         <v>0</v>
@@ -7175,7 +7175,7 @@
         <v>45170</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D58">
         <v>4</v>
@@ -7187,13 +7187,13 @@
         <v>218</v>
       </c>
       <c r="G58">
-        <v>3.92</v>
+        <v>4.7</v>
       </c>
       <c r="H58">
-        <v>3.46</v>
+        <v>3.75</v>
       </c>
       <c r="I58">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="J58">
         <v>1.05</v>
@@ -7211,7 +7211,7 @@
         <v>2.11</v>
       </c>
       <c r="O58">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P58">
         <v>1.4</v>
@@ -7282,7 +7282,7 @@
         <v>45170</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D59">
         <v>4</v>
@@ -7294,13 +7294,13 @@
         <v>219</v>
       </c>
       <c r="G59">
-        <v>3.9</v>
+        <v>3.98</v>
       </c>
       <c r="H59">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I59">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="J59">
         <v>1.03</v>
@@ -7315,10 +7315,10 @@
         <v>4</v>
       </c>
       <c r="N59">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="O59">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="P59">
         <v>1.33</v>
@@ -7389,7 +7389,7 @@
         <v>45170</v>
       </c>
       <c r="C60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D60">
         <v>4</v>
@@ -7401,13 +7401,13 @@
         <v>220</v>
       </c>
       <c r="G60">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="H60">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I60">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -7422,10 +7422,10 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="O60">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -7496,7 +7496,7 @@
         <v>45170</v>
       </c>
       <c r="C61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D61">
         <v>4</v>
@@ -7508,13 +7508,13 @@
         <v>221</v>
       </c>
       <c r="G61">
-        <v>2.46</v>
+        <v>2.02</v>
       </c>
       <c r="H61">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="I61">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="J61">
         <v>1.11</v>
@@ -7529,10 +7529,10 @@
         <v>2.6</v>
       </c>
       <c r="N61">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="O61">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="P61">
         <v>1.54</v>
@@ -7571,13 +7571,13 @@
         <v>3.34</v>
       </c>
       <c r="AB61">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AC61">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD61">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AE61">
         <v>1.32</v>
@@ -7603,7 +7603,7 @@
         <v>45170</v>
       </c>
       <c r="C62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D62">
         <v>4</v>
@@ -7615,13 +7615,13 @@
         <v>222</v>
       </c>
       <c r="G62">
-        <v>2.32</v>
+        <v>2.45</v>
       </c>
       <c r="H62">
-        <v>3.25</v>
+        <v>3.33</v>
       </c>
       <c r="I62">
-        <v>2.75</v>
+        <v>2.52</v>
       </c>
       <c r="J62">
         <v>1.05</v>
@@ -7636,10 +7636,10 @@
         <v>3.6</v>
       </c>
       <c r="N62">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="O62">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="P62">
         <v>1.4</v>
@@ -7710,7 +7710,7 @@
         <v>45170</v>
       </c>
       <c r="C63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -7722,13 +7722,13 @@
         <v>223</v>
       </c>
       <c r="G63">
-        <v>2.19</v>
+        <v>2.58</v>
       </c>
       <c r="H63">
-        <v>2.93</v>
+        <v>3.39</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>2.77</v>
       </c>
       <c r="J63">
         <v>1.08</v>
@@ -7743,10 +7743,10 @@
         <v>3</v>
       </c>
       <c r="N63">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="O63">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="P63">
         <v>1.44</v>
@@ -7785,28 +7785,28 @@
         <v>2.52</v>
       </c>
       <c r="AB63">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AC63">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD63">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AE63">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF63">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AG63">
         <v>1.93</v>
       </c>
       <c r="AH63">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AI63">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="64" spans="1:35">
@@ -7820,7 +7820,7 @@
         <v>91</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E64" t="s">
         <v>157</v>
@@ -7829,91 +7829,91 @@
         <v>224</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R64">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="T64">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U64">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V64">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="W64">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X64">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="Y64">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="Z64">
-        <v>0.82</v>
+        <v>1.3</v>
       </c>
       <c r="AA64">
-        <v>0.82</v>
+        <v>2.88</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AC64">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AD64">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AE64">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF64">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AG64">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH64">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AI64">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="65" spans="1:35">
@@ -7927,7 +7927,7 @@
         <v>92</v>
       </c>
       <c r="D65">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E65" t="s">
         <v>158</v>
@@ -7936,91 +7936,91 @@
         <v>225</v>
       </c>
       <c r="G65">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="H65">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="I65">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J65">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="K65">
-        <v>6</v>
+        <v>9.9</v>
       </c>
       <c r="L65">
+        <v>1.24</v>
+      </c>
+      <c r="M65">
+        <v>3.55</v>
+      </c>
+      <c r="N65">
+        <v>1.72</v>
+      </c>
+      <c r="O65">
+        <v>1.88</v>
+      </c>
+      <c r="P65">
+        <v>1.4</v>
+      </c>
+      <c r="Q65">
+        <v>2.75</v>
+      </c>
+      <c r="R65">
+        <v>1.8</v>
+      </c>
+      <c r="S65">
+        <v>1.91</v>
+      </c>
+      <c r="T65">
+        <v>1.22</v>
+      </c>
+      <c r="U65">
+        <v>1.26</v>
+      </c>
+      <c r="V65">
+        <v>2.04</v>
+      </c>
+      <c r="W65">
+        <v>1.45</v>
+      </c>
+      <c r="X65">
+        <v>0.8</v>
+      </c>
+      <c r="Y65">
+        <v>1.61</v>
+      </c>
+      <c r="Z65">
         <v>1.52</v>
       </c>
-      <c r="M65">
+      <c r="AA65">
+        <v>3.13</v>
+      </c>
+      <c r="AB65">
+        <v>1.75</v>
+      </c>
+      <c r="AC65">
+        <v>8</v>
+      </c>
+      <c r="AD65">
+        <v>2.44</v>
+      </c>
+      <c r="AE65">
+        <v>1.25</v>
+      </c>
+      <c r="AF65">
+        <v>1.47</v>
+      </c>
+      <c r="AG65">
+        <v>1.85</v>
+      </c>
+      <c r="AH65">
         <v>2.4</v>
       </c>
-      <c r="N65">
-        <v>2.65</v>
-      </c>
-      <c r="O65">
-        <v>1.44</v>
-      </c>
-      <c r="P65">
-        <v>1.57</v>
-      </c>
-      <c r="Q65">
-        <v>2.25</v>
-      </c>
-      <c r="R65">
-        <v>2.2</v>
-      </c>
-      <c r="S65">
-        <v>1.57</v>
-      </c>
-      <c r="T65">
-        <v>1.25</v>
-      </c>
-      <c r="U65">
-        <v>1.35</v>
-      </c>
-      <c r="V65">
-        <v>1.71</v>
-      </c>
-      <c r="W65">
-        <v>2.5</v>
-      </c>
-      <c r="X65">
-        <v>1.17</v>
-      </c>
-      <c r="Y65">
-        <v>1.58</v>
-      </c>
-      <c r="Z65">
-        <v>1.3</v>
-      </c>
-      <c r="AA65">
-        <v>2.88</v>
-      </c>
-      <c r="AB65">
-        <v>0</v>
-      </c>
-      <c r="AC65">
-        <v>0</v>
-      </c>
-      <c r="AD65">
-        <v>0</v>
-      </c>
-      <c r="AE65">
-        <v>1.22</v>
-      </c>
-      <c r="AF65">
-        <v>1.42</v>
-      </c>
-      <c r="AG65">
-        <v>1.8</v>
-      </c>
-      <c r="AH65">
-        <v>2.25</v>
-      </c>
       <c r="AI65">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="66" spans="1:35">
@@ -8031,10 +8031,10 @@
         <v>45170</v>
       </c>
       <c r="C66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D66">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E66" t="s">
         <v>159</v>
@@ -8043,91 +8043,91 @@
         <v>226</v>
       </c>
       <c r="G66">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="H66">
-        <v>3.55</v>
+        <v>3.16</v>
       </c>
       <c r="I66">
-        <v>3.7</v>
+        <v>2.99</v>
       </c>
       <c r="J66">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>1.72</v>
+        <v>2.04</v>
       </c>
       <c r="O66">
-        <v>1.88</v>
+        <v>1.61</v>
       </c>
       <c r="P66">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="S66">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="T66">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="U66">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="V66">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="W66">
-        <v>1.45</v>
+        <v>0.71</v>
       </c>
       <c r="X66">
-        <v>0.8</v>
+        <v>1.07</v>
       </c>
       <c r="Y66">
-        <v>1.61</v>
+        <v>1.03</v>
       </c>
       <c r="Z66">
-        <v>1.52</v>
+        <v>1.2</v>
       </c>
       <c r="AA66">
-        <v>3.13</v>
+        <v>2.23</v>
       </c>
       <c r="AB66">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AC66">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD66">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="AE66">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AF66">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AG66">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AH66">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AI66">
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:35">
@@ -8141,7 +8141,7 @@
         <v>93</v>
       </c>
       <c r="D67">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E67" t="s">
         <v>160</v>
@@ -8153,93 +8153,93 @@
         <v>2.38</v>
       </c>
       <c r="H67">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="I67">
-        <v>2.76</v>
+        <v>3.5</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>6.28</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="N67">
-        <v>2.04</v>
+        <v>2.6</v>
       </c>
       <c r="O67">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="P67">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R67">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S67">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="T67">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U67">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V67">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W67">
-        <v>0.71</v>
+        <v>1.21</v>
       </c>
       <c r="X67">
-        <v>1.07</v>
+        <v>0.86</v>
       </c>
       <c r="Y67">
-        <v>1.03</v>
+        <v>1.45</v>
       </c>
       <c r="Z67">
         <v>1.2</v>
       </c>
       <c r="AA67">
-        <v>2.23</v>
+        <v>2.65</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AC67">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD67">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AE67">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF67">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH67">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI67">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="68" spans="1:35">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2">
         <v>45170</v>
@@ -8248,7 +8248,7 @@
         <v>94</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E68" t="s">
         <v>161</v>
@@ -8260,88 +8260,88 @@
         <v>2.38</v>
       </c>
       <c r="H68">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="I68">
-        <v>3.5</v>
+        <v>2.73</v>
       </c>
       <c r="J68">
         <v>1.11</v>
       </c>
       <c r="K68">
-        <v>6.28</v>
+        <v>6</v>
       </c>
       <c r="L68">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="M68">
-        <v>2.46</v>
+        <v>2.45</v>
       </c>
       <c r="N68">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="O68">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="P68">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="Q68">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="R68">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S68">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="T68">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U68">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="V68">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W68">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="X68">
-        <v>0.86</v>
+        <v>0.58</v>
       </c>
       <c r="Y68">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="Z68">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="AA68">
-        <v>2.65</v>
+        <v>2.66</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AC68">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD68">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AE68">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AF68">
-        <v>1.5</v>
+        <v>1.23</v>
       </c>
       <c r="AG68">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="AH68">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="AI68">
-        <v>3.5</v>
+        <v>2.19</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-09-01_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-01_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -148,33 +148,33 @@
     <t>Italy Serie A</t>
   </si>
   <si>
+    <t>Germany 3. Liga</t>
+  </si>
+  <si>
+    <t>Portugal LigaPro</t>
+  </si>
+  <si>
     <t>Denmark Superliga</t>
   </si>
   <si>
+    <t>Serbia SuperLiga</t>
+  </si>
+  <si>
     <t>Sweden Superettan</t>
   </si>
   <si>
     <t>Norway First Division</t>
   </si>
   <si>
-    <t>Germany 3. Liga</t>
-  </si>
-  <si>
-    <t>Portugal LigaPro</t>
-  </si>
-  <si>
-    <t>Serbia SuperLiga</t>
+    <t>Spain La Liga</t>
+  </si>
+  <si>
+    <t>Spain Segunda División</t>
   </si>
   <si>
     <t>Switzerland Challenge League</t>
   </si>
   <si>
-    <t>Spain La Liga</t>
-  </si>
-  <si>
-    <t>Spain Segunda División</t>
-  </si>
-  <si>
     <t>Netherlands Eerste Divisie</t>
   </si>
   <si>
@@ -187,12 +187,12 @@
     <t>Netherlands Eredivisie</t>
   </si>
   <si>
+    <t>Turkey Süper Lig</t>
+  </si>
+  <si>
     <t>Greece Super League</t>
   </si>
   <si>
-    <t>Turkey Süper Lig</t>
-  </si>
-  <si>
     <t>Germany Bundesliga</t>
   </si>
   <si>
@@ -220,12 +220,12 @@
     <t>Brazil Serie B</t>
   </si>
   <si>
+    <t>Paraguay Division Profesional</t>
+  </si>
+  <si>
     <t>Chile Primera División</t>
   </si>
   <si>
-    <t>Paraguay Division Profesional</t>
-  </si>
-  <si>
     <t>Argentina Primera División</t>
   </si>
   <si>
@@ -322,12 +322,12 @@
     <t>ŁKS Łódź</t>
   </si>
   <si>
+    <t>Admira</t>
+  </si>
+  <si>
     <t>Floridsdorfer AC</t>
   </si>
   <si>
-    <t>Admira</t>
-  </si>
-  <si>
     <t>Amstetten</t>
   </si>
   <si>
@@ -346,31 +346,34 @@
     <t>Sassuolo</t>
   </si>
   <si>
+    <t>Saarbrucken</t>
+  </si>
+  <si>
+    <t>CD Tondela</t>
+  </si>
+  <si>
     <t>OB</t>
   </si>
   <si>
+    <t>Radnik Surdulica</t>
+  </si>
+  <si>
     <t>Örgryte</t>
   </si>
   <si>
     <t>Skeid</t>
   </si>
   <si>
-    <t>Saarbrucken</t>
-  </si>
-  <si>
-    <t>CD Tondela</t>
-  </si>
-  <si>
-    <t>Radnik Surdulica</t>
+    <t>Cádiz</t>
+  </si>
+  <si>
+    <t>AD Alcorcón</t>
   </si>
   <si>
     <t>Neuchâtel Xamax</t>
   </si>
   <si>
-    <t>Cádiz</t>
-  </si>
-  <si>
-    <t>AD Alcorcón</t>
+    <t>Emmen</t>
   </si>
   <si>
     <t>Telstar</t>
@@ -379,96 +382,93 @@
     <t>Slaven Koprivnica</t>
   </si>
   <si>
+    <t>Zulte-Waregem</t>
+  </si>
+  <si>
+    <t>RSC Anderlecht II</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>Helmond Sport</t>
+  </si>
+  <si>
+    <t>Den Bosch</t>
+  </si>
+  <si>
+    <t>MVV</t>
+  </si>
+  <si>
+    <t>Utrecht II</t>
+  </si>
+  <si>
+    <t>VVV</t>
+  </si>
+  <si>
+    <t>Kasımpaşa</t>
+  </si>
+  <si>
+    <t>Rizespor</t>
+  </si>
+  <si>
+    <t>Kifisia</t>
+  </si>
+  <si>
     <t>Oss</t>
   </si>
   <si>
-    <t>RSC Anderlecht II</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam</t>
-  </si>
-  <si>
-    <t>Den Bosch</t>
-  </si>
-  <si>
-    <t>Zulte-Waregem</t>
-  </si>
-  <si>
-    <t>Emmen</t>
-  </si>
-  <si>
-    <t>Helmond Sport</t>
-  </si>
-  <si>
-    <t>VVV</t>
-  </si>
-  <si>
-    <t>Kifisia</t>
-  </si>
-  <si>
-    <t>Kasımpaşa</t>
-  </si>
-  <si>
-    <t>Rizespor</t>
-  </si>
-  <si>
-    <t>Utrecht II</t>
-  </si>
-  <si>
-    <t>MVV</t>
-  </si>
-  <si>
     <t>Aarau</t>
   </si>
   <si>
     <t>Sion</t>
   </si>
   <si>
+    <t>Grazer AK</t>
+  </si>
+  <si>
     <t>Rapid Bucureşti</t>
   </si>
   <si>
+    <t>Borussia Dortmund</t>
+  </si>
+  <si>
+    <t>Botev Plovdiv</t>
+  </si>
+  <si>
     <t>Ruch Chorzów</t>
   </si>
   <si>
-    <t>Borussia Dortmund</t>
-  </si>
-  <si>
-    <t>Grazer AK</t>
-  </si>
-  <si>
-    <t>Botev Plovdiv</t>
+    <t>Cork City</t>
+  </si>
+  <si>
+    <t>Drogheda United</t>
   </si>
   <si>
     <t>Shamrock Rovers</t>
   </si>
   <si>
-    <t>Cork City</t>
-  </si>
-  <si>
-    <t>Drogheda United</t>
+    <t>Dundalk</t>
   </si>
   <si>
     <t>Shelbourne</t>
   </si>
   <si>
-    <t>Dundalk</t>
+    <t>Caernarfon Town</t>
   </si>
   <si>
     <t>Roma</t>
   </si>
   <si>
+    <t>Newtown</t>
+  </si>
+  <si>
+    <t>OH Leuven</t>
+  </si>
+  <si>
     <t>The New Saints</t>
   </si>
   <si>
-    <t>OH Leuven</t>
-  </si>
-  <si>
-    <t>Newtown</t>
-  </si>
-  <si>
-    <t>Caernarfon Town</t>
-  </si>
-  <si>
     <t>Luton Town</t>
   </si>
   <si>
@@ -490,12 +490,12 @@
     <t>Vitória</t>
   </si>
   <si>
+    <t>Guaireña</t>
+  </si>
+  <si>
     <t>Unión La Calera</t>
   </si>
   <si>
-    <t>Guaireña</t>
-  </si>
-  <si>
     <t>Central Córdoba SdE</t>
   </si>
   <si>
@@ -523,12 +523,12 @@
     <t>Warta Poznań</t>
   </si>
   <si>
+    <t>Sturm Graz II</t>
+  </si>
+  <si>
     <t>Liefering</t>
   </si>
   <si>
-    <t>Sturm Graz II</t>
-  </si>
-  <si>
     <t>St. Pölten</t>
   </si>
   <si>
@@ -547,31 +547,34 @@
     <t>Hellas Verona</t>
   </si>
   <si>
+    <t>Borussia Dortmund II</t>
+  </si>
+  <si>
+    <t>CF Os Belenenses</t>
+  </si>
+  <si>
     <t>Vejle</t>
   </si>
   <si>
+    <t>Bačka Topola</t>
+  </si>
+  <si>
     <t>Örebro</t>
   </si>
   <si>
     <t>Åsane</t>
   </si>
   <si>
-    <t>Borussia Dortmund II</t>
-  </si>
-  <si>
-    <t>CF Os Belenenses</t>
-  </si>
-  <si>
-    <t>Bačka Topola</t>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Racing Club de Ferrol</t>
   </si>
   <si>
     <t>Bellinzona</t>
   </si>
   <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>Racing Club de Ferrol</t>
+    <t>Dordrecht</t>
   </si>
   <si>
     <t>Eindhoven</t>
@@ -580,96 +583,93 @@
     <t>Lokomotiva Zagreb</t>
   </si>
   <si>
+    <t>FCV Dender EH</t>
+  </si>
+  <si>
+    <t>KRC Genk II</t>
+  </si>
+  <si>
+    <t>NEC</t>
+  </si>
+  <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
+    <t>PSV II</t>
+  </si>
+  <si>
+    <t>Ajax II</t>
+  </si>
+  <si>
+    <t>Roda JC</t>
+  </si>
+  <si>
+    <t>De Graafschap</t>
+  </si>
+  <si>
+    <t>Trabzonspor</t>
+  </si>
+  <si>
+    <t>Fatih Karagümrük</t>
+  </si>
+  <si>
+    <t>Atromitos</t>
+  </si>
+  <si>
     <t>Groningen</t>
   </si>
   <si>
-    <t>KRC Genk II</t>
-  </si>
-  <si>
-    <t>NEC</t>
-  </si>
-  <si>
-    <t>PSV II</t>
-  </si>
-  <si>
-    <t>FCV Dender EH</t>
-  </si>
-  <si>
-    <t>Dordrecht</t>
-  </si>
-  <si>
-    <t>Cambuur</t>
-  </si>
-  <si>
-    <t>De Graafschap</t>
-  </si>
-  <si>
-    <t>Atromitos</t>
-  </si>
-  <si>
-    <t>Trabzonspor</t>
-  </si>
-  <si>
-    <t>Fatih Karagümrük</t>
-  </si>
-  <si>
-    <t>Roda JC</t>
-  </si>
-  <si>
-    <t>Ajax II</t>
-  </si>
-  <si>
     <t>Stade Nyonnais</t>
   </si>
   <si>
     <t>Baden</t>
   </si>
   <si>
+    <t>Ried</t>
+  </si>
+  <si>
     <t>Dinamo Bucureşti</t>
   </si>
   <si>
+    <t>Heidenheim</t>
+  </si>
+  <si>
+    <t>Slavia Sofia</t>
+  </si>
+  <si>
     <t>Stal Mielec</t>
   </si>
   <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
-    <t>Ried</t>
-  </si>
-  <si>
-    <t>Slavia Sofia</t>
+    <t>Sligo Rovers</t>
+  </si>
+  <si>
+    <t>UCD</t>
   </si>
   <si>
     <t>Bohemians</t>
   </si>
   <si>
-    <t>Sligo Rovers</t>
-  </si>
-  <si>
-    <t>UCD</t>
+    <t>Derry City</t>
   </si>
   <si>
     <t>St Patrick's Athl.</t>
   </si>
   <si>
-    <t>Derry City</t>
+    <t>Connah's Quay</t>
   </si>
   <si>
     <t>AC Milan</t>
   </si>
   <si>
+    <t>Cardiff MU</t>
+  </si>
+  <si>
+    <t>KV Kortrijk</t>
+  </si>
+  <si>
     <t>Aberystwyth Town</t>
   </si>
   <si>
-    <t>KV Kortrijk</t>
-  </si>
-  <si>
-    <t>Cardiff MU</t>
-  </si>
-  <si>
-    <t>Connah's Quay</t>
-  </si>
-  <si>
     <t>West Ham United</t>
   </si>
   <si>
@@ -691,10 +691,10 @@
     <t>Mirassol</t>
   </si>
   <si>
+    <t>General Caballero JLM</t>
+  </si>
+  <si>
     <t>Copiapó</t>
-  </si>
-  <si>
-    <t>General Caballero JLM</t>
   </si>
   <si>
     <t>Platense</t>
@@ -1216,10 +1216,10 @@
         <v>4.3</v>
       </c>
       <c r="N2">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="P2">
         <v>1.35</v>
@@ -1243,10 +1243,10 @@
         <v>1.8</v>
       </c>
       <c r="W2">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="X2">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="Y2">
         <v>1.61</v>
@@ -1323,10 +1323,10 @@
         <v>3.1</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O3">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="P3">
         <v>1.47</v>
@@ -1350,10 +1350,10 @@
         <v>1.82</v>
       </c>
       <c r="W3">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="X3">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="Y3">
         <v>1.44</v>
@@ -1409,13 +1409,13 @@
         <v>164</v>
       </c>
       <c r="G4">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="H4">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I4">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="J4">
         <v>1.05</v>
@@ -1430,10 +1430,10 @@
         <v>3</v>
       </c>
       <c r="N4">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="O4">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="P4">
         <v>1.44</v>
@@ -1457,10 +1457,10 @@
         <v>1.11</v>
       </c>
       <c r="W4">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Y4">
         <v>1.1</v>
@@ -1516,13 +1516,13 @@
         <v>165</v>
       </c>
       <c r="G5">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H5">
         <v>3.4</v>
       </c>
       <c r="I5">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="J5">
         <v>1.05</v>
@@ -1537,10 +1537,10 @@
         <v>3.2</v>
       </c>
       <c r="N5">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="O5">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="P5">
         <v>1.4</v>
@@ -1730,13 +1730,13 @@
         <v>167</v>
       </c>
       <c r="G7">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="H7">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="I7">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="J7">
         <v>1.05</v>
@@ -1944,91 +1944,91 @@
         <v>169</v>
       </c>
       <c r="G9">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="H9">
-        <v>4.02</v>
+        <v>3.53</v>
       </c>
       <c r="I9">
-        <v>4.68</v>
+        <v>3.95</v>
       </c>
       <c r="J9">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L9">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="M9">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N9">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="O9">
-        <v>1.96</v>
+        <v>2.29</v>
       </c>
       <c r="P9">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="Q9">
-        <v>3.34</v>
+        <v>3.4</v>
       </c>
       <c r="R9">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S9">
+        <v>2.2</v>
+      </c>
+      <c r="T9">
+        <v>1.16</v>
+      </c>
+      <c r="U9">
+        <v>1.18</v>
+      </c>
+      <c r="V9">
         <v>2.1</v>
       </c>
-      <c r="T9">
-        <v>1.24</v>
-      </c>
-      <c r="U9">
-        <v>1.23</v>
-      </c>
-      <c r="V9">
-        <v>1.98</v>
-      </c>
       <c r="W9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X9">
+        <v>0.5</v>
+      </c>
+      <c r="Y9">
+        <v>1.46</v>
+      </c>
+      <c r="Z9">
+        <v>1.44</v>
+      </c>
+      <c r="AA9">
+        <v>2.9</v>
+      </c>
+      <c r="AB9">
+        <v>1.54</v>
+      </c>
+      <c r="AC9">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AD9">
+        <v>2.83</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>1.25</v>
+      </c>
+      <c r="AG9">
         <v>1.5</v>
       </c>
-      <c r="Y9">
-        <v>1.76</v>
-      </c>
-      <c r="Z9">
-        <v>1.39</v>
-      </c>
-      <c r="AA9">
-        <v>3.15</v>
-      </c>
-      <c r="AB9">
-        <v>1.6</v>
-      </c>
-      <c r="AC9">
-        <v>7</v>
-      </c>
-      <c r="AD9">
-        <v>3</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>1.4</v>
-      </c>
-      <c r="AG9">
-        <v>1.69</v>
-      </c>
       <c r="AH9">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AI9">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -2051,91 +2051,91 @@
         <v>170</v>
       </c>
       <c r="G10">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="H10">
-        <v>3.75</v>
+        <v>3.43</v>
       </c>
       <c r="I10">
-        <v>3.65</v>
+        <v>3.47</v>
       </c>
       <c r="J10">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L10">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="M10">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N10">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="O10">
-        <v>2.29</v>
+        <v>2.1</v>
       </c>
       <c r="P10">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="Q10">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="R10">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S10">
+        <v>2.1</v>
+      </c>
+      <c r="T10">
+        <v>1.24</v>
+      </c>
+      <c r="U10">
+        <v>1.23</v>
+      </c>
+      <c r="V10">
+        <v>1.98</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <v>1.5</v>
+      </c>
+      <c r="Y10">
+        <v>1.76</v>
+      </c>
+      <c r="Z10">
+        <v>1.39</v>
+      </c>
+      <c r="AA10">
+        <v>3.15</v>
+      </c>
+      <c r="AB10">
+        <v>1.6</v>
+      </c>
+      <c r="AC10">
+        <v>7</v>
+      </c>
+      <c r="AD10">
+        <v>3</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>1.4</v>
+      </c>
+      <c r="AG10">
         <v>2.2</v>
       </c>
-      <c r="T10">
-        <v>1.16</v>
-      </c>
-      <c r="U10">
-        <v>1.18</v>
-      </c>
-      <c r="V10">
-        <v>2.1</v>
-      </c>
-      <c r="W10">
-        <v>3</v>
-      </c>
-      <c r="X10">
-        <v>0.5</v>
-      </c>
-      <c r="Y10">
-        <v>1.46</v>
-      </c>
-      <c r="Z10">
-        <v>1.44</v>
-      </c>
-      <c r="AA10">
-        <v>2.9</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
       <c r="AH10">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -2158,13 +2158,13 @@
         <v>171</v>
       </c>
       <c r="G11">
-        <v>4.5</v>
+        <v>3.88</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>3.58</v>
       </c>
       <c r="I11">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="J11">
         <v>1.02</v>
@@ -2191,10 +2191,10 @@
         <v>3.54</v>
       </c>
       <c r="R11">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="S11">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="T11">
         <v>2.25</v>
@@ -2236,7 +2236,7 @@
         <v>1.4</v>
       </c>
       <c r="AG11">
-        <v>1.68</v>
+        <v>2.1</v>
       </c>
       <c r="AH11">
         <v>2.08</v>
@@ -2265,13 +2265,13 @@
         <v>172</v>
       </c>
       <c r="G12">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="H12">
-        <v>3.56</v>
+        <v>3.58</v>
       </c>
       <c r="I12">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="J12">
         <v>1.05</v>
@@ -2286,10 +2286,10 @@
         <v>3.75</v>
       </c>
       <c r="N12">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="O12">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="P12">
         <v>1.35</v>
@@ -2298,10 +2298,10 @@
         <v>2.95</v>
       </c>
       <c r="R12">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S12">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T12">
         <v>1.35</v>
@@ -2328,28 +2328,28 @@
         <v>2.81</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -2372,13 +2372,13 @@
         <v>173</v>
       </c>
       <c r="G13">
-        <v>5.56</v>
+        <v>3.92</v>
       </c>
       <c r="H13">
-        <v>4.04</v>
+        <v>3.25</v>
       </c>
       <c r="I13">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="J13">
         <v>1.02</v>
@@ -2393,10 +2393,10 @@
         <v>2.9</v>
       </c>
       <c r="N13">
-        <v>1.98</v>
+        <v>2.13</v>
       </c>
       <c r="O13">
-        <v>1.83</v>
+        <v>1.51</v>
       </c>
       <c r="P13">
         <v>1.44</v>
@@ -2456,7 +2456,7 @@
         <v>2.88</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2479,13 +2479,13 @@
         <v>174</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="H14">
-        <v>3.75</v>
+        <v>3.87</v>
       </c>
       <c r="I14">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="J14">
         <v>1.03</v>
@@ -2586,13 +2586,13 @@
         <v>175</v>
       </c>
       <c r="G15">
-        <v>3.25</v>
+        <v>3.53</v>
       </c>
       <c r="H15">
-        <v>3.45</v>
+        <v>3.67</v>
       </c>
       <c r="I15">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="J15">
         <v>1.04</v>
@@ -2693,13 +2693,13 @@
         <v>176</v>
       </c>
       <c r="G16">
-        <v>1.96</v>
+        <v>1.73</v>
       </c>
       <c r="H16">
-        <v>3.35</v>
+        <v>3.95</v>
       </c>
       <c r="I16">
-        <v>3.35</v>
+        <v>4.6</v>
       </c>
       <c r="J16">
         <v>1.02</v>
@@ -2714,10 +2714,10 @@
         <v>4.1</v>
       </c>
       <c r="N16">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O16">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="P16">
         <v>1.36</v>
@@ -2791,7 +2791,7 @@
         <v>80</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
         <v>110</v>
@@ -2800,91 +2800,91 @@
         <v>177</v>
       </c>
       <c r="G17">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="H17">
-        <v>3.6</v>
+        <v>3.92</v>
       </c>
       <c r="I17">
-        <v>3.6</v>
+        <v>4.35</v>
       </c>
       <c r="J17">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K17">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="L17">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="M17">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="N17">
-        <v>1.85</v>
+        <v>1.59</v>
       </c>
       <c r="O17">
-        <v>1.85</v>
+        <v>2.21</v>
       </c>
       <c r="P17">
         <v>1.3</v>
       </c>
       <c r="Q17">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="R17">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="S17">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="T17">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="U17">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="V17">
+        <v>2.15</v>
+      </c>
+      <c r="W17">
+        <v>1.5</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>2.08</v>
+      </c>
+      <c r="Z17">
+        <v>0.9</v>
+      </c>
+      <c r="AA17">
+        <v>2.98</v>
+      </c>
+      <c r="AB17">
+        <v>1.45</v>
+      </c>
+      <c r="AC17">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD17">
+        <v>3.18</v>
+      </c>
+      <c r="AE17">
+        <v>1.14</v>
+      </c>
+      <c r="AF17">
+        <v>1.28</v>
+      </c>
+      <c r="AG17">
+        <v>1.51</v>
+      </c>
+      <c r="AH17">
         <v>2</v>
       </c>
-      <c r="W17">
-        <v>0.67</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>1.4</v>
-      </c>
-      <c r="Z17">
-        <v>1.1</v>
-      </c>
-      <c r="AA17">
-        <v>2.5</v>
-      </c>
-      <c r="AB17">
-        <v>1.55</v>
-      </c>
-      <c r="AC17">
-        <v>8.5</v>
-      </c>
-      <c r="AD17">
-        <v>2.91</v>
-      </c>
-      <c r="AE17">
-        <v>1.25</v>
-      </c>
-      <c r="AF17">
-        <v>1.46</v>
-      </c>
-      <c r="AG17">
-        <v>1.73</v>
-      </c>
-      <c r="AH17">
-        <v>2.13</v>
-      </c>
       <c r="AI17">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2898,7 +2898,7 @@
         <v>80</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E18" t="s">
         <v>111</v>
@@ -2907,91 +2907,91 @@
         <v>178</v>
       </c>
       <c r="G18">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="H18">
-        <v>3.48</v>
+        <v>3.18</v>
       </c>
       <c r="I18">
         <v>3.2</v>
       </c>
       <c r="J18">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K18">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L18">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M18">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>1.84</v>
+        <v>2.03</v>
       </c>
       <c r="O18">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="P18">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q18">
+        <v>2.6</v>
+      </c>
+      <c r="R18">
+        <v>1.91</v>
+      </c>
+      <c r="S18">
+        <v>1.8</v>
+      </c>
+      <c r="T18">
+        <v>1.2</v>
+      </c>
+      <c r="U18">
+        <v>1.25</v>
+      </c>
+      <c r="V18">
+        <v>1.83</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0.46</v>
+      </c>
+      <c r="Z18">
+        <v>1.79</v>
+      </c>
+      <c r="AA18">
+        <v>2.25</v>
+      </c>
+      <c r="AB18">
+        <v>1.6</v>
+      </c>
+      <c r="AC18">
+        <v>7</v>
+      </c>
+      <c r="AD18">
         <v>3</v>
       </c>
-      <c r="R18">
-        <v>1.67</v>
-      </c>
-      <c r="S18">
-        <v>2.1</v>
-      </c>
-      <c r="T18">
-        <v>1.33</v>
-      </c>
-      <c r="U18">
-        <v>1.29</v>
-      </c>
-      <c r="V18">
-        <v>1.67</v>
-      </c>
-      <c r="W18">
-        <v>1.1</v>
-      </c>
-      <c r="X18">
-        <v>0.67</v>
-      </c>
-      <c r="Y18">
-        <v>1.87</v>
-      </c>
-      <c r="Z18">
-        <v>1.54</v>
-      </c>
-      <c r="AA18">
-        <v>3.41</v>
-      </c>
-      <c r="AB18">
-        <v>1.7</v>
-      </c>
-      <c r="AC18">
-        <v>7.65</v>
-      </c>
-      <c r="AD18">
-        <v>2.55</v>
-      </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF18">
-        <v>1.22</v>
+        <v>1.48</v>
       </c>
       <c r="AG18">
-        <v>1.38</v>
+        <v>1.88</v>
       </c>
       <c r="AH18">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="AI18">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -3005,7 +3005,7 @@
         <v>80</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
         <v>112</v>
@@ -3014,91 +3014,91 @@
         <v>179</v>
       </c>
       <c r="G19">
-        <v>2.53</v>
+        <v>1.8</v>
       </c>
       <c r="H19">
-        <v>3.62</v>
+        <v>3.68</v>
       </c>
       <c r="I19">
-        <v>2.64</v>
+        <v>4.47</v>
       </c>
       <c r="J19">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K19">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="L19">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="M19">
-        <v>4.75</v>
+        <v>3.95</v>
       </c>
       <c r="N19">
-        <v>1.47</v>
+        <v>1.85</v>
       </c>
       <c r="O19">
+        <v>1.85</v>
+      </c>
+      <c r="P19">
+        <v>1.3</v>
+      </c>
+      <c r="Q19">
+        <v>3.15</v>
+      </c>
+      <c r="R19">
+        <v>1.67</v>
+      </c>
+      <c r="S19">
+        <v>2.14</v>
+      </c>
+      <c r="T19">
+        <v>1.24</v>
+      </c>
+      <c r="U19">
+        <v>1.22</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <v>0.67</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>1.4</v>
+      </c>
+      <c r="Z19">
+        <v>1.1</v>
+      </c>
+      <c r="AA19">
         <v>2.5</v>
       </c>
-      <c r="P19">
+      <c r="AB19">
+        <v>1.55</v>
+      </c>
+      <c r="AC19">
+        <v>8.5</v>
+      </c>
+      <c r="AD19">
+        <v>2.91</v>
+      </c>
+      <c r="AE19">
         <v>1.25</v>
       </c>
-      <c r="Q19">
-        <v>3.75</v>
-      </c>
-      <c r="R19">
-        <v>1.44</v>
-      </c>
-      <c r="S19">
-        <v>2.62</v>
-      </c>
-      <c r="T19">
-        <v>1.53</v>
-      </c>
-      <c r="U19">
-        <v>1.29</v>
-      </c>
-      <c r="V19">
-        <v>1.44</v>
-      </c>
-      <c r="W19">
-        <v>0.5</v>
-      </c>
-      <c r="X19">
-        <v>0.64</v>
-      </c>
-      <c r="Y19">
-        <v>1.17</v>
-      </c>
-      <c r="Z19">
-        <v>1.24</v>
-      </c>
-      <c r="AA19">
-        <v>2.41</v>
-      </c>
-      <c r="AB19">
-        <v>2.2</v>
-      </c>
-      <c r="AC19">
-        <v>9.1</v>
-      </c>
-      <c r="AD19">
-        <v>1.89</v>
-      </c>
-      <c r="AE19">
-        <v>1.22</v>
-      </c>
       <c r="AF19">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="AG19">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="AH19">
-        <v>2.16</v>
+        <v>2.13</v>
       </c>
       <c r="AI19">
-        <v>2.84</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -3112,7 +3112,7 @@
         <v>80</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
         <v>113</v>
@@ -3121,91 +3121,91 @@
         <v>180</v>
       </c>
       <c r="G20">
-        <v>1.77</v>
+        <v>3.4</v>
       </c>
       <c r="H20">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>2.09</v>
       </c>
       <c r="J20">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="K20">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L20">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="M20">
-        <v>4.7</v>
+        <v>3.25</v>
       </c>
       <c r="N20">
-        <v>1.59</v>
+        <v>2.16</v>
       </c>
       <c r="O20">
-        <v>2.21</v>
+        <v>1.67</v>
       </c>
       <c r="P20">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q20">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="R20">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="S20">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="T20">
-        <v>1.16</v>
+        <v>1.67</v>
       </c>
       <c r="U20">
         <v>1.25</v>
       </c>
       <c r="V20">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="W20">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y20">
-        <v>2.08</v>
+        <v>0.97</v>
       </c>
       <c r="Z20">
-        <v>0.9</v>
+        <v>1.79</v>
       </c>
       <c r="AA20">
-        <v>2.98</v>
+        <v>2.76</v>
       </c>
       <c r="AB20">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD20">
-        <v>3.18</v>
+        <v>0</v>
       </c>
       <c r="AE20">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>1.28</v>
+        <v>1.9</v>
       </c>
       <c r="AG20">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AH20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI20">
-        <v>2.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -3219,7 +3219,7 @@
         <v>80</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
         <v>114</v>
@@ -3228,91 +3228,91 @@
         <v>181</v>
       </c>
       <c r="G21">
-        <v>1.96</v>
+        <v>2.23</v>
       </c>
       <c r="H21">
-        <v>3.46</v>
+        <v>3.48</v>
       </c>
       <c r="I21">
-        <v>4.07</v>
+        <v>3.2</v>
       </c>
       <c r="J21">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K21">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L21">
+        <v>1.29</v>
+      </c>
+      <c r="M21">
+        <v>3.5</v>
+      </c>
+      <c r="N21">
+        <v>1.84</v>
+      </c>
+      <c r="O21">
+        <v>1.87</v>
+      </c>
+      <c r="P21">
+        <v>1.36</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>1.67</v>
+      </c>
+      <c r="S21">
+        <v>2.1</v>
+      </c>
+      <c r="T21">
         <v>1.33</v>
       </c>
-      <c r="M21">
-        <v>3</v>
-      </c>
-      <c r="N21">
-        <v>2.02</v>
-      </c>
-      <c r="O21">
-        <v>1.78</v>
-      </c>
-      <c r="P21">
-        <v>1.44</v>
-      </c>
-      <c r="Q21">
-        <v>2.6</v>
-      </c>
-      <c r="R21">
-        <v>1.91</v>
-      </c>
-      <c r="S21">
-        <v>1.8</v>
-      </c>
-      <c r="T21">
-        <v>1.2</v>
-      </c>
       <c r="U21">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V21">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="Y21">
-        <v>0.46</v>
+        <v>1.87</v>
       </c>
       <c r="Z21">
-        <v>1.79</v>
+        <v>1.54</v>
       </c>
       <c r="AA21">
-        <v>2.25</v>
+        <v>3.41</v>
       </c>
       <c r="AB21">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AC21">
-        <v>7</v>
+        <v>7.65</v>
       </c>
       <c r="AD21">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="AE21">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AF21">
-        <v>1.48</v>
+        <v>1.22</v>
       </c>
       <c r="AG21">
-        <v>1.88</v>
+        <v>1.38</v>
       </c>
       <c r="AH21">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="AI21">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -3326,7 +3326,7 @@
         <v>80</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
         <v>115</v>
@@ -3335,91 +3335,91 @@
         <v>182</v>
       </c>
       <c r="G22">
-        <v>3.4</v>
+        <v>2.53</v>
       </c>
       <c r="H22">
-        <v>3.4</v>
+        <v>3.62</v>
       </c>
       <c r="I22">
-        <v>2.05</v>
+        <v>2.64</v>
       </c>
       <c r="J22">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="K22">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L22">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="M22">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="N22">
-        <v>2.05</v>
+        <v>1.43</v>
       </c>
       <c r="O22">
-        <v>1.72</v>
+        <v>2.49</v>
       </c>
       <c r="P22">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="Q22">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="R22">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="S22">
-        <v>1.96</v>
+        <v>2.62</v>
       </c>
       <c r="T22">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="U22">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V22">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="W22">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="X22">
-        <v>3</v>
+        <v>0.64</v>
       </c>
       <c r="Y22">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
       <c r="Z22">
-        <v>1.79</v>
+        <v>1.24</v>
       </c>
       <c r="AA22">
-        <v>2.76</v>
+        <v>2.41</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -3433,7 +3433,7 @@
         <v>81</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E23" t="s">
         <v>116</v>
@@ -3442,37 +3442,37 @@
         <v>183</v>
       </c>
       <c r="G23">
-        <v>1.6</v>
+        <v>3.05</v>
       </c>
       <c r="H23">
-        <v>3.95</v>
+        <v>3.58</v>
       </c>
       <c r="I23">
-        <v>4.9</v>
+        <v>2.26</v>
       </c>
       <c r="J23">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L23">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="M23">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N23">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="O23">
-        <v>2.19</v>
+        <v>1.95</v>
       </c>
       <c r="P23">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="Q23">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="R23">
         <v>1.67</v>
@@ -3481,52 +3481,52 @@
         <v>2.1</v>
       </c>
       <c r="T23">
-        <v>1.14</v>
+        <v>1.72</v>
       </c>
       <c r="U23">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="V23">
-        <v>2.05</v>
+        <v>1.27</v>
       </c>
       <c r="W23">
+        <v>2</v>
+      </c>
+      <c r="X23">
         <v>3</v>
       </c>
-      <c r="X23">
-        <v>0.5</v>
-      </c>
       <c r="Y23">
-        <v>1.45</v>
+        <v>1.16</v>
       </c>
       <c r="Z23">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AA23">
-        <v>2.83</v>
+        <v>2.56</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -3549,91 +3549,91 @@
         <v>184</v>
       </c>
       <c r="G24">
-        <v>2.95</v>
+        <v>2.36</v>
       </c>
       <c r="H24">
-        <v>3.43</v>
+        <v>2.92</v>
       </c>
       <c r="I24">
+        <v>3.08</v>
+      </c>
+      <c r="J24">
+        <v>1.11</v>
+      </c>
+      <c r="K24">
+        <v>6.5</v>
+      </c>
+      <c r="L24">
+        <v>1.52</v>
+      </c>
+      <c r="M24">
+        <v>2.35</v>
+      </c>
+      <c r="N24">
+        <v>2.58</v>
+      </c>
+      <c r="O24">
+        <v>1.38</v>
+      </c>
+      <c r="P24">
+        <v>1.56</v>
+      </c>
+      <c r="Q24">
+        <v>2.29</v>
+      </c>
+      <c r="R24">
         <v>2.1</v>
       </c>
-      <c r="J24">
-        <v>1.04</v>
-      </c>
-      <c r="K24">
-        <v>12</v>
-      </c>
-      <c r="L24">
-        <v>1.28</v>
-      </c>
-      <c r="M24">
-        <v>3.75</v>
-      </c>
-      <c r="N24">
-        <v>1.76</v>
-      </c>
-      <c r="O24">
-        <v>1.95</v>
-      </c>
-      <c r="P24">
-        <v>1.36</v>
-      </c>
-      <c r="Q24">
-        <v>3</v>
-      </c>
-      <c r="R24">
-        <v>1.67</v>
-      </c>
       <c r="S24">
-        <v>2.1</v>
+        <v>1.68</v>
       </c>
       <c r="T24">
-        <v>1.72</v>
+        <v>1.3</v>
       </c>
       <c r="U24">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="V24">
-        <v>1.27</v>
+        <v>1.55</v>
       </c>
       <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
         <v>2</v>
       </c>
-      <c r="X24">
-        <v>3</v>
-      </c>
       <c r="Y24">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="Z24">
-        <v>1.4</v>
+        <v>0.87</v>
       </c>
       <c r="AA24">
-        <v>2.56</v>
+        <v>2.16</v>
       </c>
       <c r="AB24">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="AC24">
         <v>7.5</v>
       </c>
       <c r="AD24">
-        <v>1.84</v>
+        <v>2.2</v>
       </c>
       <c r="AE24">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="AF24">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AG24">
-        <v>1.94</v>
+        <v>2.2</v>
       </c>
       <c r="AH24">
-        <v>2.48</v>
+        <v>3.1</v>
       </c>
       <c r="AI24">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3647,7 +3647,7 @@
         <v>81</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
         <v>118</v>
@@ -3656,91 +3656,91 @@
         <v>185</v>
       </c>
       <c r="G25">
-        <v>2.18</v>
+        <v>1.6</v>
       </c>
       <c r="H25">
-        <v>3.01</v>
+        <v>3.85</v>
       </c>
       <c r="I25">
-        <v>3.11</v>
+        <v>4.65</v>
       </c>
       <c r="J25">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="K25">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="L25">
-        <v>1.52</v>
+        <v>1.18</v>
       </c>
       <c r="M25">
-        <v>2.35</v>
+        <v>4.5</v>
       </c>
       <c r="N25">
-        <v>2.47</v>
+        <v>1.61</v>
       </c>
       <c r="O25">
-        <v>1.48</v>
+        <v>2.19</v>
       </c>
       <c r="P25">
-        <v>1.56</v>
+        <v>1.29</v>
       </c>
       <c r="Q25">
-        <v>2.29</v>
+        <v>3.5</v>
       </c>
       <c r="R25">
+        <v>1.67</v>
+      </c>
+      <c r="S25">
         <v>2.1</v>
       </c>
-      <c r="S25">
-        <v>1.68</v>
-      </c>
       <c r="T25">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="U25">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="V25">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X25">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="Y25">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
       <c r="Z25">
-        <v>0.87</v>
+        <v>1.38</v>
       </c>
       <c r="AA25">
-        <v>2.16</v>
+        <v>2.83</v>
       </c>
       <c r="AB25">
+        <v>1.38</v>
+      </c>
+      <c r="AC25">
+        <v>8</v>
+      </c>
+      <c r="AD25">
+        <v>4</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>1.28</v>
+      </c>
+      <c r="AG25">
         <v>1.91</v>
       </c>
-      <c r="AC25">
-        <v>7.5</v>
-      </c>
-      <c r="AD25">
-        <v>2.2</v>
-      </c>
-      <c r="AE25">
-        <v>1.38</v>
-      </c>
-      <c r="AF25">
-        <v>1.7</v>
-      </c>
-      <c r="AG25">
-        <v>2.2</v>
-      </c>
       <c r="AH25">
-        <v>3.1</v>
+        <v>1.91</v>
       </c>
       <c r="AI25">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -3763,67 +3763,67 @@
         <v>186</v>
       </c>
       <c r="G26">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="H26">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="I26">
-        <v>2.95</v>
+        <v>7</v>
       </c>
       <c r="J26">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K26">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L26">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="M26">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N26">
-        <v>1.8</v>
+        <v>1.52</v>
       </c>
       <c r="O26">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="P26">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="Q26">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="R26">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="S26">
+        <v>2.1</v>
+      </c>
+      <c r="T26">
+        <v>1.09</v>
+      </c>
+      <c r="U26">
+        <v>1.14</v>
+      </c>
+      <c r="V26">
+        <v>3</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
         <v>2.15</v>
       </c>
-      <c r="T26">
-        <v>1.4</v>
-      </c>
-      <c r="U26">
-        <v>1.25</v>
-      </c>
-      <c r="V26">
-        <v>1.63</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>1.82</v>
-      </c>
       <c r="Z26">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AA26">
-        <v>1.82</v>
+        <v>3.81</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -3835,24 +3835,24 @@
         <v>0</v>
       </c>
       <c r="AE26">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="AF26">
-        <v>1.67</v>
+        <v>1.34</v>
       </c>
       <c r="AG26">
-        <v>2.15</v>
+        <v>1.61</v>
       </c>
       <c r="AH26">
-        <v>2.95</v>
+        <v>2.02</v>
       </c>
       <c r="AI26">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2">
         <v>45170</v>
@@ -3861,7 +3861,7 @@
         <v>82</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E27" t="s">
         <v>120</v>
@@ -3870,96 +3870,96 @@
         <v>187</v>
       </c>
       <c r="G27">
-        <v>2.86</v>
+        <v>2.25</v>
       </c>
       <c r="H27">
-        <v>3.24</v>
+        <v>3.6</v>
       </c>
       <c r="I27">
-        <v>2.35</v>
+        <v>2.95</v>
       </c>
       <c r="J27">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K27">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L27">
+        <v>1.25</v>
+      </c>
+      <c r="M27">
+        <v>3.75</v>
+      </c>
+      <c r="N27">
+        <v>1.8</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="P27">
         <v>1.33</v>
       </c>
-      <c r="M27">
-        <v>3.25</v>
-      </c>
-      <c r="N27">
-        <v>1.99</v>
-      </c>
-      <c r="O27">
-        <v>1.76</v>
-      </c>
-      <c r="P27">
+      <c r="Q27">
+        <v>3.1</v>
+      </c>
+      <c r="R27">
+        <v>1.65</v>
+      </c>
+      <c r="S27">
+        <v>2.15</v>
+      </c>
+      <c r="T27">
         <v>1.4</v>
       </c>
-      <c r="Q27">
-        <v>2.75</v>
-      </c>
-      <c r="R27">
-        <v>1.8</v>
-      </c>
-      <c r="S27">
-        <v>1.91</v>
-      </c>
-      <c r="T27">
-        <v>1.5</v>
-      </c>
       <c r="U27">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="V27">
-        <v>1.4</v>
+        <v>1.63</v>
       </c>
       <c r="W27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X27">
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>1.1</v>
+        <v>1.82</v>
       </c>
       <c r="Z27">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>2.35</v>
+        <v>1.82</v>
       </c>
       <c r="AB27">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="AC27">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD27">
-        <v>1.95</v>
+        <v>2.63</v>
       </c>
       <c r="AE27">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AF27">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AG27">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="AH27">
-        <v>2.69</v>
+        <v>2.95</v>
       </c>
       <c r="AI27">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2">
         <v>45170</v>
@@ -3968,7 +3968,7 @@
         <v>82</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
         <v>121</v>
@@ -3977,91 +3977,91 @@
         <v>188</v>
       </c>
       <c r="G28">
-        <v>4.15</v>
+        <v>2.86</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>3.24</v>
       </c>
       <c r="I28">
-        <v>1.67</v>
+        <v>2.35</v>
       </c>
       <c r="J28">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="K28">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="L28">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="M28">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="N28">
-        <v>1.62</v>
+        <v>1.99</v>
       </c>
       <c r="O28">
-        <v>2.25</v>
+        <v>1.76</v>
       </c>
       <c r="P28">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="Q28">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="R28">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="U28">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="V28">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="W28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X28">
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="Z28">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AA28">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -4084,52 +4084,52 @@
         <v>189</v>
       </c>
       <c r="G29">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="H29">
-        <v>3.67</v>
+        <v>4.1</v>
       </c>
       <c r="I29">
-        <v>2.84</v>
+        <v>3.9</v>
       </c>
       <c r="J29">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K29">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L29">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="M29">
-        <v>5.28</v>
+        <v>5.4</v>
       </c>
       <c r="N29">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="O29">
         <v>2.55</v>
       </c>
       <c r="P29">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q29">
-        <v>3.72</v>
+        <v>3.7</v>
       </c>
       <c r="R29">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="S29">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="T29">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="U29">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="V29">
-        <v>1.58</v>
+        <v>1.99</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -4138,42 +4138,42 @@
         <v>3</v>
       </c>
       <c r="Y29">
-        <v>1.42</v>
+        <v>2.98</v>
       </c>
       <c r="Z29">
-        <v>2.12</v>
+        <v>1.44</v>
       </c>
       <c r="AA29">
-        <v>3.54</v>
+        <v>4.42</v>
       </c>
       <c r="AB29">
-        <v>1.95</v>
+        <v>1.59</v>
       </c>
       <c r="AC29">
-        <v>7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD29">
-        <v>2.25</v>
+        <v>2.77</v>
       </c>
       <c r="AE29">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AF29">
-        <v>1.32</v>
+        <v>1.69</v>
       </c>
       <c r="AG29">
-        <v>1.58</v>
+        <v>2.1</v>
       </c>
       <c r="AH29">
-        <v>1.99</v>
+        <v>2.71</v>
       </c>
       <c r="AI29">
-        <v>2.54</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="30" spans="1:35">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="2">
         <v>45170</v>
@@ -4191,96 +4191,96 @@
         <v>190</v>
       </c>
       <c r="G30">
-        <v>1.96</v>
+        <v>2.36</v>
       </c>
       <c r="H30">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I30">
-        <v>3.05</v>
+        <v>2.68</v>
       </c>
       <c r="J30">
         <v>1.02</v>
       </c>
       <c r="K30">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="L30">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="M30">
-        <v>4.8</v>
+        <v>5.28</v>
       </c>
       <c r="N30">
-        <v>1.59</v>
+        <v>1.39</v>
       </c>
       <c r="O30">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="P30">
         <v>1.25</v>
       </c>
       <c r="Q30">
-        <v>3.75</v>
+        <v>3.72</v>
       </c>
       <c r="R30">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="S30">
-        <v>2.5</v>
+        <v>2.73</v>
       </c>
       <c r="T30">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="U30">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.58</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y30">
-        <v>1.16</v>
+        <v>1.42</v>
       </c>
       <c r="Z30">
-        <v>1.49</v>
+        <v>2.12</v>
       </c>
       <c r="AA30">
-        <v>2.65</v>
+        <v>3.54</v>
       </c>
       <c r="AB30">
-        <v>1.64</v>
+        <v>1.95</v>
       </c>
       <c r="AC30">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD30">
-        <v>2.65</v>
+        <v>2.25</v>
       </c>
       <c r="AE30">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AF30">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="AG30">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="AH30">
-        <v>2.3</v>
+        <v>1.99</v>
       </c>
       <c r="AI30">
-        <v>3.05</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B31" s="2">
         <v>45170</v>
@@ -4298,96 +4298,96 @@
         <v>191</v>
       </c>
       <c r="G31">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H31">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="I31">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="J31">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K31">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="L31">
+        <v>1.16</v>
+      </c>
+      <c r="M31">
+        <v>4.8</v>
+      </c>
+      <c r="N31">
+        <v>1.47</v>
+      </c>
+      <c r="O31">
+        <v>2.45</v>
+      </c>
+      <c r="P31">
+        <v>1.25</v>
+      </c>
+      <c r="Q31">
+        <v>3.75</v>
+      </c>
+      <c r="R31">
+        <v>1.5</v>
+      </c>
+      <c r="S31">
+        <v>2.5</v>
+      </c>
+      <c r="T31">
+        <v>1.33</v>
+      </c>
+      <c r="U31">
         <v>1.22</v>
       </c>
-      <c r="M31">
-        <v>4</v>
-      </c>
-      <c r="N31">
-        <v>1.75</v>
-      </c>
-      <c r="O31">
-        <v>2.05</v>
-      </c>
-      <c r="P31">
-        <v>1.35</v>
-      </c>
-      <c r="Q31">
-        <v>3.05</v>
-      </c>
-      <c r="R31">
-        <v>1.62</v>
-      </c>
-      <c r="S31">
-        <v>2.25</v>
-      </c>
-      <c r="T31">
-        <v>1.42</v>
-      </c>
-      <c r="U31">
-        <v>1.25</v>
-      </c>
       <c r="V31">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="X31">
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>1.47</v>
+        <v>1.16</v>
       </c>
       <c r="Z31">
-        <v>1.15</v>
+        <v>1.49</v>
       </c>
       <c r="AA31">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AE31">
         <v>1.25</v>
       </c>
       <c r="AF31">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AG31">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="AH31">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="AI31">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="32" spans="1:35">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2">
         <v>45170</v>
@@ -4405,91 +4405,91 @@
         <v>192</v>
       </c>
       <c r="G32">
-        <v>1.78</v>
+        <v>3.5</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I32">
-        <v>3.88</v>
+        <v>1.95</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K32">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L32">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M32">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="N32">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="O32">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="P32">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="Q32">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="R32">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S32">
         <v>2.5</v>
       </c>
       <c r="T32">
-        <v>1.22</v>
+        <v>1.87</v>
       </c>
       <c r="U32">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="V32">
-        <v>1.99</v>
+        <v>1.3</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X32">
         <v>3</v>
       </c>
       <c r="Y32">
-        <v>2.98</v>
+        <v>1.46</v>
       </c>
       <c r="Z32">
-        <v>1.44</v>
+        <v>1.82</v>
       </c>
       <c r="AA32">
-        <v>4.42</v>
+        <v>3.28</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -4512,91 +4512,91 @@
         <v>193</v>
       </c>
       <c r="G33">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="I33">
+        <v>2.85</v>
+      </c>
+      <c r="J33">
+        <v>1.03</v>
+      </c>
+      <c r="K33">
+        <v>13</v>
+      </c>
+      <c r="L33">
+        <v>1.22</v>
+      </c>
+      <c r="M33">
+        <v>4</v>
+      </c>
+      <c r="N33">
+        <v>1.75</v>
+      </c>
+      <c r="O33">
+        <v>2.05</v>
+      </c>
+      <c r="P33">
+        <v>1.35</v>
+      </c>
+      <c r="Q33">
+        <v>3.05</v>
+      </c>
+      <c r="R33">
+        <v>1.62</v>
+      </c>
+      <c r="S33">
+        <v>2.25</v>
+      </c>
+      <c r="T33">
+        <v>1.42</v>
+      </c>
+      <c r="U33">
+        <v>1.25</v>
+      </c>
+      <c r="V33">
+        <v>1.62</v>
+      </c>
+      <c r="W33">
+        <v>1.5</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>1.47</v>
+      </c>
+      <c r="Z33">
+        <v>1.15</v>
+      </c>
+      <c r="AA33">
+        <v>2.62</v>
+      </c>
+      <c r="AB33">
+        <v>1.85</v>
+      </c>
+      <c r="AC33">
         <v>7</v>
       </c>
-      <c r="J33">
-        <v>1.02</v>
-      </c>
-      <c r="K33">
-        <v>19</v>
-      </c>
-      <c r="L33">
-        <v>1.16</v>
-      </c>
-      <c r="M33">
-        <v>5.5</v>
-      </c>
-      <c r="N33">
-        <v>1.52</v>
-      </c>
-      <c r="O33">
-        <v>2.55</v>
-      </c>
-      <c r="P33">
-        <v>1.24</v>
-      </c>
-      <c r="Q33">
-        <v>3.7</v>
-      </c>
-      <c r="R33">
-        <v>1.72</v>
-      </c>
-      <c r="S33">
-        <v>2.1</v>
-      </c>
-      <c r="T33">
-        <v>1.09</v>
-      </c>
-      <c r="U33">
-        <v>1.14</v>
-      </c>
-      <c r="V33">
-        <v>3</v>
-      </c>
-      <c r="W33">
-        <v>1</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33">
-        <v>2.15</v>
-      </c>
-      <c r="Z33">
-        <v>1.66</v>
-      </c>
-      <c r="AA33">
-        <v>3.81</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
       <c r="AD33">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AE33">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AF33">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="AG33">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="AH33">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="AI33">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -4619,91 +4619,91 @@
         <v>194</v>
       </c>
       <c r="G34">
-        <v>3.5</v>
+        <v>2.26</v>
       </c>
       <c r="H34">
-        <v>3.75</v>
+        <v>4.05</v>
       </c>
       <c r="I34">
-        <v>1.95</v>
+        <v>2.72</v>
       </c>
       <c r="J34">
         <v>1.02</v>
       </c>
       <c r="K34">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L34">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="M34">
-        <v>5</v>
+        <v>6.05</v>
       </c>
       <c r="N34">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="O34">
+        <v>2.88</v>
+      </c>
+      <c r="P34">
+        <v>1.21</v>
+      </c>
+      <c r="Q34">
+        <v>4.15</v>
+      </c>
+      <c r="R34">
+        <v>1.35</v>
+      </c>
+      <c r="S34">
+        <v>3.04</v>
+      </c>
+      <c r="T34">
+        <v>1.47</v>
+      </c>
+      <c r="U34">
+        <v>1.18</v>
+      </c>
+      <c r="V34">
+        <v>1.65</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>1.47</v>
+      </c>
+      <c r="AA34">
+        <v>1.47</v>
+      </c>
+      <c r="AB34">
+        <v>1.85</v>
+      </c>
+      <c r="AC34">
+        <v>7</v>
+      </c>
+      <c r="AD34">
         <v>2.4</v>
       </c>
-      <c r="P34">
-        <v>1.26</v>
-      </c>
-      <c r="Q34">
-        <v>3.5</v>
-      </c>
-      <c r="R34">
-        <v>1.52</v>
-      </c>
-      <c r="S34">
-        <v>2.5</v>
-      </c>
-      <c r="T34">
-        <v>1.87</v>
-      </c>
-      <c r="U34">
-        <v>1.2</v>
-      </c>
-      <c r="V34">
-        <v>1.3</v>
-      </c>
-      <c r="W34">
-        <v>3</v>
-      </c>
-      <c r="X34">
-        <v>3</v>
-      </c>
-      <c r="Y34">
-        <v>1.46</v>
-      </c>
-      <c r="Z34">
-        <v>1.82</v>
-      </c>
-      <c r="AA34">
-        <v>3.28</v>
-      </c>
-      <c r="AB34">
-        <v>0</v>
-      </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
       <c r="AE34">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="AF34">
-        <v>1.34</v>
+        <v>1.58</v>
       </c>
       <c r="AG34">
-        <v>1.61</v>
+        <v>2.02</v>
       </c>
       <c r="AH34">
-        <v>2.02</v>
+        <v>2.7</v>
       </c>
       <c r="AI34">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="35" spans="1:35">
@@ -4726,13 +4726,13 @@
         <v>195</v>
       </c>
       <c r="G35">
-        <v>2.7</v>
+        <v>3.24</v>
       </c>
       <c r="H35">
-        <v>3.75</v>
+        <v>3.76</v>
       </c>
       <c r="I35">
-        <v>2.35</v>
+        <v>2.07</v>
       </c>
       <c r="J35">
         <v>1.02</v>
@@ -4741,81 +4741,81 @@
         <v>17</v>
       </c>
       <c r="L35">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="M35">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="N35">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="O35">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P35">
+        <v>1.29</v>
+      </c>
+      <c r="Q35">
+        <v>3.42</v>
+      </c>
+      <c r="R35">
+        <v>1.54</v>
+      </c>
+      <c r="S35">
+        <v>2.38</v>
+      </c>
+      <c r="T35">
+        <v>1.75</v>
+      </c>
+      <c r="U35">
         <v>1.27</v>
       </c>
-      <c r="Q35">
-        <v>3.5</v>
-      </c>
-      <c r="R35">
-        <v>1.52</v>
-      </c>
-      <c r="S35">
-        <v>2.45</v>
-      </c>
-      <c r="T35">
-        <v>1.6</v>
-      </c>
-      <c r="U35">
-        <v>1.22</v>
-      </c>
       <c r="V35">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="W35">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="X35">
         <v>3</v>
       </c>
       <c r="Y35">
+        <v>0.95</v>
+      </c>
+      <c r="Z35">
+        <v>1.27</v>
+      </c>
+      <c r="AA35">
+        <v>2.22</v>
+      </c>
+      <c r="AB35">
+        <v>2.7</v>
+      </c>
+      <c r="AC35">
+        <v>7</v>
+      </c>
+      <c r="AD35">
+        <v>1.7</v>
+      </c>
+      <c r="AE35">
+        <v>1.25</v>
+      </c>
+      <c r="AF35">
+        <v>1.47</v>
+      </c>
+      <c r="AG35">
         <v>1.82</v>
       </c>
-      <c r="Z35">
-        <v>1.17</v>
-      </c>
-      <c r="AA35">
-        <v>2.99</v>
-      </c>
-      <c r="AB35">
-        <v>2</v>
-      </c>
-      <c r="AC35">
-        <v>7.5</v>
-      </c>
-      <c r="AD35">
-        <v>2.15</v>
-      </c>
-      <c r="AE35">
-        <v>1.18</v>
-      </c>
-      <c r="AF35">
-        <v>1.31</v>
-      </c>
-      <c r="AG35">
-        <v>1.6</v>
-      </c>
       <c r="AH35">
-        <v>1.93</v>
+        <v>2.38</v>
       </c>
       <c r="AI35">
-        <v>2.39</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="36" spans="1:35">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2">
         <v>45170</v>
@@ -4824,7 +4824,7 @@
         <v>82</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E36" t="s">
         <v>129</v>
@@ -4833,67 +4833,67 @@
         <v>196</v>
       </c>
       <c r="G36">
-        <v>2.56</v>
+        <v>2.7</v>
       </c>
       <c r="H36">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="I36">
-        <v>2.93</v>
+        <v>2.35</v>
       </c>
       <c r="J36">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="K36">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="L36">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="M36">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="N36">
+        <v>1.62</v>
+      </c>
+      <c r="O36">
         <v>2.25</v>
       </c>
-      <c r="O36">
-        <v>1.57</v>
-      </c>
       <c r="P36">
+        <v>1.27</v>
+      </c>
+      <c r="Q36">
+        <v>3.5</v>
+      </c>
+      <c r="R36">
+        <v>1.52</v>
+      </c>
+      <c r="S36">
+        <v>2.45</v>
+      </c>
+      <c r="T36">
+        <v>1.6</v>
+      </c>
+      <c r="U36">
+        <v>1.22</v>
+      </c>
+      <c r="V36">
+        <v>1.45</v>
+      </c>
+      <c r="W36">
         <v>1.5</v>
       </c>
-      <c r="Q36">
-        <v>2.5</v>
-      </c>
-      <c r="R36">
-        <v>1.95</v>
-      </c>
-      <c r="S36">
-        <v>1.8</v>
-      </c>
-      <c r="T36">
-        <v>1.53</v>
-      </c>
-      <c r="U36">
-        <v>1.3</v>
-      </c>
-      <c r="V36">
-        <v>1.42</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
       <c r="X36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="Z36">
-        <v>0.44</v>
+        <v>1.17</v>
       </c>
       <c r="AA36">
-        <v>0.44</v>
+        <v>2.99</v>
       </c>
       <c r="AB36">
         <v>2</v>
@@ -4902,27 +4902,27 @@
         <v>7.5</v>
       </c>
       <c r="AD36">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="AE36">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
       <c r="AF36">
-        <v>1.88</v>
+        <v>1.31</v>
       </c>
       <c r="AG36">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="AH36">
-        <v>3.5</v>
+        <v>1.93</v>
       </c>
       <c r="AI36">
-        <v>5.1</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="37" spans="1:35">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" s="2">
         <v>45170</v>
@@ -4940,13 +4940,13 @@
         <v>197</v>
       </c>
       <c r="G37">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="H37">
-        <v>3.7</v>
+        <v>3.63</v>
       </c>
       <c r="I37">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="J37">
         <v>1.04</v>
@@ -4961,10 +4961,10 @@
         <v>4.12</v>
       </c>
       <c r="N37">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="O37">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="P37">
         <v>1.38</v>
@@ -5029,7 +5029,7 @@
     </row>
     <row r="38" spans="1:35">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="2">
         <v>45170</v>
@@ -5047,13 +5047,13 @@
         <v>198</v>
       </c>
       <c r="G38">
-        <v>2.35</v>
+        <v>2.48</v>
       </c>
       <c r="H38">
-        <v>3.5</v>
+        <v>3.58</v>
       </c>
       <c r="I38">
-        <v>2.82</v>
+        <v>2.65</v>
       </c>
       <c r="J38">
         <v>1.05</v>
@@ -5068,7 +5068,7 @@
         <v>4.22</v>
       </c>
       <c r="N38">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O38">
         <v>2.11</v>
@@ -5136,7 +5136,7 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B39" s="2">
         <v>45170</v>
@@ -5145,7 +5145,7 @@
         <v>82</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
         <v>132</v>
@@ -5154,91 +5154,91 @@
         <v>199</v>
       </c>
       <c r="G39">
-        <v>3.24</v>
+        <v>2.74</v>
       </c>
       <c r="H39">
-        <v>3.76</v>
+        <v>3.05</v>
       </c>
       <c r="I39">
-        <v>2.07</v>
+        <v>2.39</v>
       </c>
       <c r="J39">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="K39">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="L39">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="M39">
-        <v>4.4</v>
+        <v>2.75</v>
       </c>
       <c r="N39">
-        <v>1.63</v>
+        <v>2.24</v>
       </c>
       <c r="O39">
-        <v>2.3</v>
+        <v>1.61</v>
       </c>
       <c r="P39">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="Q39">
-        <v>3.42</v>
+        <v>2.5</v>
       </c>
       <c r="R39">
-        <v>1.54</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="U39">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="V39">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="W39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y39">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>1.27</v>
+        <v>0.44</v>
       </c>
       <c r="AA39">
-        <v>2.22</v>
+        <v>0.44</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AE39">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="AF39">
-        <v>1.47</v>
+        <v>1.88</v>
       </c>
       <c r="AG39">
-        <v>1.82</v>
+        <v>2.45</v>
       </c>
       <c r="AH39">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="AI39">
-        <v>3.25</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="40" spans="1:35">
@@ -5261,96 +5261,96 @@
         <v>200</v>
       </c>
       <c r="G40">
-        <v>2.26</v>
+        <v>4.15</v>
       </c>
       <c r="H40">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="I40">
-        <v>2.72</v>
+        <v>1.67</v>
       </c>
       <c r="J40">
         <v>1.02</v>
       </c>
       <c r="K40">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L40">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="M40">
-        <v>6.05</v>
+        <v>4.5</v>
       </c>
       <c r="N40">
-        <v>1.35</v>
+        <v>1.62</v>
       </c>
       <c r="O40">
-        <v>2.88</v>
+        <v>2.25</v>
       </c>
       <c r="P40">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="Q40">
-        <v>4.15</v>
+        <v>3.5</v>
       </c>
       <c r="R40">
-        <v>1.35</v>
+        <v>1.62</v>
       </c>
       <c r="S40">
-        <v>3.04</v>
+        <v>2.2</v>
       </c>
       <c r="T40">
-        <v>1.47</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
         <v>1.18</v>
       </c>
       <c r="V40">
-        <v>1.65</v>
+        <v>1.18</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X40">
         <v>0</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Z40">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AA40">
-        <v>1.47</v>
+        <v>2.5</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE40">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AF40">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AG40">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="AH40">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AI40">
-        <v>3.8</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="41" spans="1:35">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2">
         <v>45170</v>
@@ -5368,13 +5368,13 @@
         <v>201</v>
       </c>
       <c r="G41">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="H41">
-        <v>3.95</v>
+        <v>3.52</v>
       </c>
       <c r="I41">
-        <v>4.7</v>
+        <v>3.97</v>
       </c>
       <c r="J41">
         <v>1.03</v>
@@ -5401,10 +5401,10 @@
         <v>3.5</v>
       </c>
       <c r="R41">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S41">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T41">
         <v>1.17</v>
@@ -5431,13 +5431,13 @@
         <v>2.87</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AC41">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD41">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AE41">
         <v>0</v>
@@ -5446,18 +5446,18 @@
         <v>0</v>
       </c>
       <c r="AG41">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AH41">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AI41">
-        <v>0</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="42" spans="1:35">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B42" s="2">
         <v>45170</v>
@@ -5475,13 +5475,13 @@
         <v>202</v>
       </c>
       <c r="G42">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="H42">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="I42">
-        <v>10</v>
+        <v>6.75</v>
       </c>
       <c r="J42">
         <v>1.02</v>
@@ -5496,10 +5496,10 @@
         <v>5</v>
       </c>
       <c r="N42">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="O42">
-        <v>2.73</v>
+        <v>2.48</v>
       </c>
       <c r="P42">
         <v>1.25</v>
@@ -5508,10 +5508,10 @@
         <v>3.75</v>
       </c>
       <c r="R42">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S42">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T42">
         <v>1.04</v>
@@ -5538,33 +5538,33 @@
         <v>2.32</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AC42">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD42">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE42">
         <v>0</v>
       </c>
       <c r="AF42">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG42">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH42">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AI42">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="43" spans="1:35">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2">
         <v>45170</v>
@@ -5573,7 +5573,7 @@
         <v>84</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E43" t="s">
         <v>136</v>
@@ -5582,96 +5582,96 @@
         <v>203</v>
       </c>
       <c r="G43">
-        <v>1.6</v>
+        <v>2.16</v>
       </c>
       <c r="H43">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="I43">
-        <v>5.25</v>
+        <v>2.88</v>
       </c>
       <c r="J43">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K43">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="L43">
+        <v>1.18</v>
+      </c>
+      <c r="M43">
+        <v>4.2</v>
+      </c>
+      <c r="N43">
+        <v>1.72</v>
+      </c>
+      <c r="O43">
+        <v>2.05</v>
+      </c>
+      <c r="P43">
         <v>1.33</v>
       </c>
-      <c r="M43">
-        <v>3.1</v>
-      </c>
-      <c r="N43">
-        <v>2.22</v>
-      </c>
-      <c r="O43">
-        <v>1.59</v>
-      </c>
-      <c r="P43">
-        <v>1.43</v>
-      </c>
       <c r="Q43">
-        <v>2.65</v>
+        <v>3.15</v>
       </c>
       <c r="R43">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="S43">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="T43">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="U43">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="W43">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="X43">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="Y43">
-        <v>1.82</v>
+        <v>2.25</v>
       </c>
       <c r="Z43">
-        <v>1.31</v>
+        <v>1.65</v>
       </c>
       <c r="AA43">
-        <v>3.13</v>
+        <v>3.9</v>
       </c>
       <c r="AB43">
-        <v>1.35</v>
+        <v>1.62</v>
       </c>
       <c r="AC43">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AD43">
-        <v>4.09</v>
+        <v>2.88</v>
       </c>
       <c r="AE43">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AF43">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AG43">
-        <v>1.98</v>
+        <v>2.38</v>
       </c>
       <c r="AH43">
-        <v>2.49</v>
+        <v>2.27</v>
       </c>
       <c r="AI43">
-        <v>3.34</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="44" spans="1:35">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B44" s="2">
         <v>45170</v>
@@ -5680,7 +5680,7 @@
         <v>84</v>
       </c>
       <c r="D44">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E44" t="s">
         <v>137</v>
@@ -5689,19 +5689,19 @@
         <v>204</v>
       </c>
       <c r="G44">
-        <v>2.33</v>
+        <v>1.95</v>
       </c>
       <c r="H44">
-        <v>3.2</v>
+        <v>3.32</v>
       </c>
       <c r="I44">
-        <v>3.13</v>
+        <v>3.92</v>
       </c>
       <c r="J44">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="K44">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L44">
         <v>1.33</v>
@@ -5710,10 +5710,10 @@
         <v>3.1</v>
       </c>
       <c r="N44">
-        <v>2.03</v>
+        <v>2.22</v>
       </c>
       <c r="O44">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="P44">
         <v>1.43</v>
@@ -5722,58 +5722,58 @@
         <v>2.65</v>
       </c>
       <c r="R44">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="S44">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="T44">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="U44">
         <v>1.25</v>
       </c>
       <c r="V44">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="X44">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Y44">
-        <v>1.57</v>
+        <v>1.82</v>
       </c>
       <c r="Z44">
-        <v>1.09</v>
+        <v>1.31</v>
       </c>
       <c r="AA44">
-        <v>2.66</v>
+        <v>3.13</v>
       </c>
       <c r="AB44">
-        <v>1.64</v>
+        <v>1.35</v>
       </c>
       <c r="AC44">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD44">
-        <v>2.66</v>
+        <v>4.09</v>
       </c>
       <c r="AE44">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF44">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AG44">
-        <v>1.58</v>
+        <v>1.98</v>
       </c>
       <c r="AH44">
-        <v>2.03</v>
+        <v>2.49</v>
       </c>
       <c r="AI44">
-        <v>2.65</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="45" spans="1:35">
@@ -5796,13 +5796,13 @@
         <v>205</v>
       </c>
       <c r="G45">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="H45">
-        <v>6.4</v>
+        <v>6.35</v>
       </c>
       <c r="I45">
-        <v>9.9</v>
+        <v>11.5</v>
       </c>
       <c r="J45">
         <v>1.02</v>
@@ -5817,10 +5817,10 @@
         <v>7</v>
       </c>
       <c r="N45">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="O45">
-        <v>3.15</v>
+        <v>2.83</v>
       </c>
       <c r="P45">
         <v>1.2</v>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="46" spans="1:35">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B46" s="2">
         <v>45170</v>
@@ -5894,7 +5894,7 @@
         <v>84</v>
       </c>
       <c r="D46">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E46" t="s">
         <v>139</v>
@@ -5903,96 +5903,96 @@
         <v>206</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="H46">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="I46">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J46">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K46">
-        <v>10.5</v>
+        <v>7.5</v>
       </c>
       <c r="L46">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="M46">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="N46">
-        <v>1.72</v>
+        <v>2.25</v>
       </c>
       <c r="O46">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="P46">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="Q46">
-        <v>3.15</v>
+        <v>2.5</v>
       </c>
       <c r="R46">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="S46">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T46">
         <v>1.2</v>
       </c>
       <c r="U46">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="V46">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X46">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="Y46">
-        <v>2.25</v>
+        <v>1.66</v>
       </c>
       <c r="Z46">
-        <v>1.65</v>
+        <v>1.31</v>
       </c>
       <c r="AA46">
-        <v>3.9</v>
+        <v>2.97</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AC46">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AE46">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF46">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AG46">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AH46">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AI46">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:35">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B47" s="2">
         <v>45170</v>
@@ -6001,7 +6001,7 @@
         <v>84</v>
       </c>
       <c r="D47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47" t="s">
         <v>140</v>
@@ -6010,91 +6010,91 @@
         <v>207</v>
       </c>
       <c r="G47">
-        <v>1.98</v>
+        <v>2.33</v>
       </c>
       <c r="H47">
-        <v>3.32</v>
+        <v>3.2</v>
       </c>
       <c r="I47">
-        <v>3.98</v>
+        <v>3.13</v>
       </c>
       <c r="J47">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K47">
         <v>7.5</v>
       </c>
       <c r="L47">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="M47">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N47">
-        <v>2.2</v>
+        <v>2.03</v>
       </c>
       <c r="O47">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P47">
+        <v>1.43</v>
+      </c>
+      <c r="Q47">
+        <v>2.65</v>
+      </c>
+      <c r="R47">
+        <v>1.8</v>
+      </c>
+      <c r="S47">
+        <v>1.95</v>
+      </c>
+      <c r="T47">
+        <v>1.33</v>
+      </c>
+      <c r="U47">
+        <v>1.25</v>
+      </c>
+      <c r="V47">
+        <v>1.57</v>
+      </c>
+      <c r="W47">
         <v>1.5</v>
       </c>
-      <c r="Q47">
-        <v>2.5</v>
-      </c>
-      <c r="R47">
-        <v>1.91</v>
-      </c>
-      <c r="S47">
-        <v>1.8</v>
-      </c>
-      <c r="T47">
-        <v>1.2</v>
-      </c>
-      <c r="U47">
-        <v>1.28</v>
-      </c>
-      <c r="V47">
-        <v>1.8</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
       <c r="X47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y47">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="Z47">
-        <v>1.31</v>
+        <v>1.09</v>
       </c>
       <c r="AA47">
-        <v>2.97</v>
+        <v>2.66</v>
       </c>
       <c r="AB47">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="AC47">
-        <v>8.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="AD47">
-        <v>2.77</v>
+        <v>2.66</v>
       </c>
       <c r="AE47">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AF47">
-        <v>1.72</v>
+        <v>1.33</v>
       </c>
       <c r="AG47">
-        <v>2.15</v>
+        <v>1.58</v>
       </c>
       <c r="AH47">
-        <v>2.88</v>
+        <v>2.03</v>
       </c>
       <c r="AI47">
-        <v>0</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="48" spans="1:35">
@@ -6117,91 +6117,91 @@
         <v>208</v>
       </c>
       <c r="G48">
+        <v>2.78</v>
+      </c>
+      <c r="H48">
+        <v>3.33</v>
+      </c>
+      <c r="I48">
+        <v>2.27</v>
+      </c>
+      <c r="J48">
+        <v>1.06</v>
+      </c>
+      <c r="K48">
+        <v>8</v>
+      </c>
+      <c r="L48">
+        <v>1.28</v>
+      </c>
+      <c r="M48">
+        <v>3.5</v>
+      </c>
+      <c r="N48">
+        <v>1.82</v>
+      </c>
+      <c r="O48">
+        <v>1.88</v>
+      </c>
+      <c r="P48">
+        <v>1.4</v>
+      </c>
+      <c r="Q48">
+        <v>2.75</v>
+      </c>
+      <c r="R48">
         <v>1.7</v>
       </c>
-      <c r="H48">
-        <v>3.65</v>
-      </c>
-      <c r="I48">
-        <v>4.6</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>1.75</v>
-      </c>
-      <c r="O48">
-        <v>1.97</v>
-      </c>
-      <c r="P48">
-        <v>1.36</v>
-      </c>
-      <c r="Q48">
-        <v>3</v>
-      </c>
-      <c r="R48">
-        <v>1.75</v>
-      </c>
       <c r="S48">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W48">
-        <v>2.14</v>
+        <v>1.29</v>
       </c>
       <c r="X48">
-        <v>1.43</v>
+        <v>0.86</v>
       </c>
       <c r="Y48">
-        <v>1.91</v>
+        <v>1.18</v>
       </c>
       <c r="Z48">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="AA48">
-        <v>3.1</v>
+        <v>2.53</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AC48">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AD48">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AE48">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF48">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AG48">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AH48">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AI48">
-        <v>0</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="49" spans="1:35">
@@ -6224,91 +6224,91 @@
         <v>209</v>
       </c>
       <c r="G49">
-        <v>2.78</v>
+        <v>1.26</v>
       </c>
       <c r="H49">
-        <v>3.33</v>
+        <v>4.93</v>
       </c>
       <c r="I49">
-        <v>2.27</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="J49">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="K49">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L49">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="M49">
+        <v>4.84</v>
+      </c>
+      <c r="N49">
+        <v>1.59</v>
+      </c>
+      <c r="O49">
+        <v>2.13</v>
+      </c>
+      <c r="P49">
+        <v>1.29</v>
+      </c>
+      <c r="Q49">
         <v>3.5</v>
       </c>
-      <c r="N49">
-        <v>1.82</v>
-      </c>
-      <c r="O49">
-        <v>1.88</v>
-      </c>
-      <c r="P49">
-        <v>1.4</v>
-      </c>
-      <c r="Q49">
-        <v>2.75</v>
-      </c>
       <c r="R49">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="S49">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="T49">
-        <v>1.68</v>
+        <v>1.05</v>
       </c>
       <c r="U49">
-        <v>1.25</v>
+        <v>1.08</v>
       </c>
       <c r="V49">
-        <v>1.35</v>
+        <v>3.6</v>
       </c>
       <c r="W49">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="X49">
-        <v>0.86</v>
+        <v>0.14</v>
       </c>
       <c r="Y49">
-        <v>1.18</v>
+        <v>1.67</v>
       </c>
       <c r="Z49">
-        <v>1.35</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA49">
-        <v>2.53</v>
+        <v>2.61</v>
       </c>
       <c r="AB49">
-        <v>2.6</v>
+        <v>1.08</v>
       </c>
       <c r="AC49">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="AD49">
-        <v>1.78</v>
+        <v>11</v>
       </c>
       <c r="AE49">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AF49">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="AG49">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="AH49">
-        <v>2.34</v>
+        <v>2.19</v>
       </c>
       <c r="AI49">
-        <v>3.14</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="50" spans="1:35">
@@ -6331,91 +6331,91 @@
         <v>210</v>
       </c>
       <c r="G50">
-        <v>1.26</v>
+        <v>1.6</v>
       </c>
       <c r="H50">
-        <v>4.93</v>
+        <v>3.68</v>
       </c>
       <c r="I50">
-        <v>9.949999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="J50">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>4.84</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="O50">
-        <v>2.23</v>
+        <v>1.97</v>
       </c>
       <c r="P50">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="Q50">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="R50">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="S50">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="T50">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="U50">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="V50">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="W50">
-        <v>1.14</v>
+        <v>2.14</v>
       </c>
       <c r="X50">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="Y50">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="Z50">
-        <v>0.9399999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="AA50">
-        <v>2.61</v>
+        <v>3.1</v>
       </c>
       <c r="AB50">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AD50">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE50">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AF50">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AG50">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AH50">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="AI50">
-        <v>2.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:35">
@@ -6438,88 +6438,88 @@
         <v>211</v>
       </c>
       <c r="G51">
-        <v>2.78</v>
+        <v>2.99</v>
       </c>
       <c r="H51">
-        <v>2.97</v>
+        <v>3.23</v>
       </c>
       <c r="I51">
-        <v>2.48</v>
+        <v>2.19</v>
       </c>
       <c r="J51">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="K51">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="L51">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="M51">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="N51">
-        <v>2.21</v>
+        <v>1.87</v>
       </c>
       <c r="O51">
-        <v>1.59</v>
+        <v>1.84</v>
       </c>
       <c r="P51">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="Q51">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="R51">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S51">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T51">
-        <v>1.47</v>
+        <v>1.66</v>
       </c>
       <c r="U51">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="V51">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="W51">
-        <v>1.57</v>
+        <v>1.86</v>
       </c>
       <c r="X51">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="Y51">
-        <v>1.18</v>
+        <v>1.53</v>
       </c>
       <c r="Z51">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="AA51">
-        <v>2.6</v>
+        <v>2.79</v>
       </c>
       <c r="AB51">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="AC51">
         <v>6.5</v>
       </c>
       <c r="AD51">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AE51">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AF51">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AG51">
-        <v>2.29</v>
+        <v>2.16</v>
       </c>
       <c r="AH51">
-        <v>3.08</v>
+        <v>2.88</v>
       </c>
       <c r="AI51">
         <v>3.6</v>
@@ -6545,88 +6545,88 @@
         <v>212</v>
       </c>
       <c r="G52">
-        <v>2.99</v>
+        <v>2.78</v>
       </c>
       <c r="H52">
-        <v>3.23</v>
+        <v>2.97</v>
       </c>
       <c r="I52">
-        <v>2.19</v>
+        <v>2.48</v>
       </c>
       <c r="J52">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="K52">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="L52">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="M52">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="N52">
-        <v>1.87</v>
+        <v>2.21</v>
       </c>
       <c r="O52">
-        <v>1.84</v>
+        <v>1.59</v>
       </c>
       <c r="P52">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="Q52">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="R52">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S52">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T52">
-        <v>1.66</v>
+        <v>1.47</v>
       </c>
       <c r="U52">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="V52">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="W52">
-        <v>1.86</v>
+        <v>1.57</v>
       </c>
       <c r="X52">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="Y52">
-        <v>1.53</v>
+        <v>1.18</v>
       </c>
       <c r="Z52">
-        <v>1.26</v>
+        <v>1.42</v>
       </c>
       <c r="AA52">
-        <v>2.79</v>
+        <v>2.6</v>
       </c>
       <c r="AB52">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="AC52">
         <v>6.5</v>
       </c>
       <c r="AD52">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="AE52">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AF52">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="AG52">
-        <v>2.16</v>
+        <v>2.29</v>
       </c>
       <c r="AH52">
-        <v>2.88</v>
+        <v>3.08</v>
       </c>
       <c r="AI52">
         <v>3.6</v>
@@ -6634,7 +6634,7 @@
     </row>
     <row r="53" spans="1:35">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B53" s="2">
         <v>45170</v>
@@ -6643,7 +6643,7 @@
         <v>85</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E53" t="s">
         <v>146</v>
@@ -6652,96 +6652,96 @@
         <v>213</v>
       </c>
       <c r="G53">
-        <v>2.61</v>
+        <v>3.48</v>
       </c>
       <c r="H53">
-        <v>3.01</v>
+        <v>3.57</v>
       </c>
       <c r="I53">
-        <v>2.57</v>
+        <v>1.85</v>
       </c>
       <c r="J53">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="K53">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="L53">
+        <v>1.25</v>
+      </c>
+      <c r="M53">
+        <v>3.75</v>
+      </c>
+      <c r="N53">
+        <v>1.85</v>
+      </c>
+      <c r="O53">
+        <v>1.86</v>
+      </c>
+      <c r="P53">
+        <v>1.35</v>
+      </c>
+      <c r="Q53">
+        <v>2.9</v>
+      </c>
+      <c r="R53">
+        <v>1.7</v>
+      </c>
+      <c r="S53">
+        <v>2</v>
+      </c>
+      <c r="T53">
+        <v>1.78</v>
+      </c>
+      <c r="U53">
+        <v>1.27</v>
+      </c>
+      <c r="V53">
+        <v>1.25</v>
+      </c>
+      <c r="W53">
+        <v>2</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>1.77</v>
+      </c>
+      <c r="Z53">
+        <v>1.34</v>
+      </c>
+      <c r="AA53">
+        <v>3.11</v>
+      </c>
+      <c r="AB53">
+        <v>2.66</v>
+      </c>
+      <c r="AC53">
+        <v>9.5</v>
+      </c>
+      <c r="AD53">
+        <v>1.57</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
         <v>1.42</v>
       </c>
-      <c r="M53">
-        <v>2.9</v>
-      </c>
-      <c r="N53">
-        <v>2.25</v>
-      </c>
-      <c r="O53">
-        <v>1.57</v>
-      </c>
-      <c r="P53">
-        <v>1.5</v>
-      </c>
-      <c r="Q53">
-        <v>2.5</v>
-      </c>
-      <c r="R53">
-        <v>1.95</v>
-      </c>
-      <c r="S53">
-        <v>1.8</v>
-      </c>
-      <c r="T53">
-        <v>1.46</v>
-      </c>
-      <c r="U53">
-        <v>1.34</v>
-      </c>
-      <c r="V53">
-        <v>1.44</v>
-      </c>
-      <c r="W53">
-        <v>1</v>
-      </c>
-      <c r="X53">
-        <v>3</v>
-      </c>
-      <c r="Y53">
-        <v>1.42</v>
-      </c>
-      <c r="Z53">
-        <v>1.37</v>
-      </c>
-      <c r="AA53">
-        <v>2.79</v>
-      </c>
-      <c r="AB53">
-        <v>1.95</v>
-      </c>
-      <c r="AC53">
-        <v>7</v>
-      </c>
-      <c r="AD53">
-        <v>2.15</v>
-      </c>
-      <c r="AE53">
-        <v>1.38</v>
-      </c>
-      <c r="AF53">
-        <v>1.68</v>
-      </c>
-      <c r="AG53">
-        <v>2.14</v>
-      </c>
       <c r="AH53">
-        <v>2.8</v>
+        <v>1.66</v>
       </c>
       <c r="AI53">
-        <v>3.85</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="54" spans="1:35">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B54" s="2">
         <v>45170</v>
@@ -6750,7 +6750,7 @@
         <v>85</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E54" t="s">
         <v>147</v>
@@ -6759,96 +6759,96 @@
         <v>214</v>
       </c>
       <c r="G54">
-        <v>1.02</v>
+        <v>2.24</v>
       </c>
       <c r="H54">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="I54">
-        <v>26</v>
+        <v>3.32</v>
       </c>
       <c r="J54">
+        <v>1.08</v>
+      </c>
+      <c r="K54">
+        <v>8.5</v>
+      </c>
+      <c r="L54">
+        <v>1.42</v>
+      </c>
+      <c r="M54">
+        <v>2.9</v>
+      </c>
+      <c r="N54">
+        <v>2.25</v>
+      </c>
+      <c r="O54">
+        <v>1.57</v>
+      </c>
+      <c r="P54">
+        <v>1.5</v>
+      </c>
+      <c r="Q54">
+        <v>2.5</v>
+      </c>
+      <c r="R54">
+        <v>1.95</v>
+      </c>
+      <c r="S54">
+        <v>1.8</v>
+      </c>
+      <c r="T54">
+        <v>1.46</v>
+      </c>
+      <c r="U54">
+        <v>1.34</v>
+      </c>
+      <c r="V54">
+        <v>1.44</v>
+      </c>
+      <c r="W54">
         <v>1</v>
       </c>
-      <c r="K54">
-        <v>29</v>
-      </c>
-      <c r="L54">
-        <v>1.01</v>
-      </c>
-      <c r="M54">
-        <v>13</v>
-      </c>
-      <c r="N54">
-        <v>1.06</v>
-      </c>
-      <c r="O54">
-        <v>10</v>
-      </c>
-      <c r="P54">
-        <v>1.06</v>
-      </c>
-      <c r="Q54">
-        <v>8</v>
-      </c>
-      <c r="R54">
-        <v>3.75</v>
-      </c>
-      <c r="S54">
-        <v>1.25</v>
-      </c>
-      <c r="T54">
-        <v>1</v>
-      </c>
-      <c r="U54">
-        <v>1.01</v>
-      </c>
-      <c r="V54">
-        <v>11</v>
-      </c>
-      <c r="W54">
-        <v>2</v>
-      </c>
       <c r="X54">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="Y54">
-        <v>3.12</v>
+        <v>1.42</v>
       </c>
       <c r="Z54">
-        <v>0.89</v>
+        <v>1.37</v>
       </c>
       <c r="AA54">
-        <v>4.01</v>
+        <v>2.79</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AC54">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD54">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AE54">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF54">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AG54">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AH54">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AI54">
-        <v>0</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="55" spans="1:35">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B55" s="2">
         <v>45170</v>
@@ -6857,7 +6857,7 @@
         <v>85</v>
       </c>
       <c r="D55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E55" t="s">
         <v>148</v>
@@ -6866,96 +6866,96 @@
         <v>215</v>
       </c>
       <c r="G55">
-        <v>1.67</v>
+        <v>2.59</v>
       </c>
       <c r="H55">
-        <v>3.98</v>
+        <v>3.2</v>
       </c>
       <c r="I55">
-        <v>3.83</v>
+        <v>2.43</v>
       </c>
       <c r="J55">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="K55">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="L55">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
       <c r="M55">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N55">
-        <v>1.61</v>
+        <v>1.98</v>
       </c>
       <c r="O55">
-        <v>2.19</v>
+        <v>1.74</v>
       </c>
       <c r="P55">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="Q55">
-        <v>3.7</v>
+        <v>2.65</v>
       </c>
       <c r="R55">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="S55">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="T55">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
       <c r="U55">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="V55">
-        <v>2.2</v>
+        <v>1.42</v>
       </c>
       <c r="W55">
         <v>0.5</v>
       </c>
       <c r="X55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y55">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="Z55">
-        <v>0.78</v>
+        <v>0.98</v>
       </c>
       <c r="AA55">
-        <v>2.01</v>
+        <v>2.16</v>
       </c>
       <c r="AB55">
-        <v>1.4</v>
+        <v>2.08</v>
       </c>
       <c r="AC55">
-        <v>9.5</v>
+        <v>7.7</v>
       </c>
       <c r="AD55">
-        <v>3.4</v>
+        <v>1.97</v>
       </c>
       <c r="AE55">
-        <v>1.13</v>
+        <v>1.53</v>
       </c>
       <c r="AF55">
-        <v>1.29</v>
+        <v>1.93</v>
       </c>
       <c r="AG55">
-        <v>1.52</v>
+        <v>2.6</v>
       </c>
       <c r="AH55">
-        <v>1.98</v>
+        <v>3.6</v>
       </c>
       <c r="AI55">
-        <v>2.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:35">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B56" s="2">
         <v>45170</v>
@@ -6964,7 +6964,7 @@
         <v>85</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E56" t="s">
         <v>149</v>
@@ -6973,91 +6973,91 @@
         <v>216</v>
       </c>
       <c r="G56">
-        <v>2.5</v>
+        <v>1.79</v>
       </c>
       <c r="H56">
-        <v>3.21</v>
+        <v>3.85</v>
       </c>
       <c r="I56">
-        <v>2.84</v>
+        <v>4.12</v>
       </c>
       <c r="J56">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="K56">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="L56">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="M56">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N56">
-        <v>1.96</v>
+        <v>1.61</v>
       </c>
       <c r="O56">
-        <v>1.86</v>
+        <v>2.19</v>
       </c>
       <c r="P56">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="Q56">
-        <v>2.65</v>
+        <v>3.7</v>
       </c>
       <c r="R56">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="S56">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="T56">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="U56">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="V56">
-        <v>1.42</v>
+        <v>2.2</v>
       </c>
       <c r="W56">
         <v>0.5</v>
       </c>
       <c r="X56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y56">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="Z56">
-        <v>0.98</v>
+        <v>0.78</v>
       </c>
       <c r="AA56">
-        <v>2.16</v>
+        <v>2.01</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AC56">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AD56">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AE56">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AF56">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AG56">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AH56">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AI56">
-        <v>0</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="57" spans="1:35">
@@ -7080,67 +7080,67 @@
         <v>217</v>
       </c>
       <c r="G57">
-        <v>3.91</v>
+        <v>1.02</v>
       </c>
       <c r="H57">
-        <v>3.7</v>
+        <v>11</v>
       </c>
       <c r="I57">
-        <v>1.76</v>
+        <v>26</v>
       </c>
       <c r="J57">
         <v>1</v>
       </c>
       <c r="K57">
-        <v>10.5</v>
+        <v>29</v>
       </c>
       <c r="L57">
+        <v>1.01</v>
+      </c>
+      <c r="M57">
+        <v>13</v>
+      </c>
+      <c r="N57">
+        <v>1.06</v>
+      </c>
+      <c r="O57">
+        <v>10</v>
+      </c>
+      <c r="P57">
+        <v>1.06</v>
+      </c>
+      <c r="Q57">
+        <v>8</v>
+      </c>
+      <c r="R57">
+        <v>3.75</v>
+      </c>
+      <c r="S57">
         <v>1.25</v>
       </c>
-      <c r="M57">
-        <v>3.75</v>
-      </c>
-      <c r="N57">
-        <v>1.76</v>
-      </c>
-      <c r="O57">
-        <v>2</v>
-      </c>
-      <c r="P57">
-        <v>1.35</v>
-      </c>
-      <c r="Q57">
-        <v>2.9</v>
-      </c>
-      <c r="R57">
-        <v>1.7</v>
-      </c>
-      <c r="S57">
-        <v>2</v>
-      </c>
       <c r="T57">
-        <v>1.78</v>
+        <v>1</v>
       </c>
       <c r="U57">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="V57">
-        <v>1.25</v>
+        <v>11</v>
       </c>
       <c r="W57">
         <v>2</v>
       </c>
       <c r="X57">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y57">
-        <v>1.77</v>
+        <v>3.12</v>
       </c>
       <c r="Z57">
-        <v>1.34</v>
+        <v>0.89</v>
       </c>
       <c r="AA57">
-        <v>3.11</v>
+        <v>4.01</v>
       </c>
       <c r="AB57">
         <v>0</v>
@@ -7155,16 +7155,16 @@
         <v>0</v>
       </c>
       <c r="AF57">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AG57">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AH57">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AI57">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="58" spans="1:35">
@@ -7187,13 +7187,13 @@
         <v>218</v>
       </c>
       <c r="G58">
-        <v>4.7</v>
+        <v>4.07</v>
       </c>
       <c r="H58">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="I58">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="J58">
         <v>1.05</v>
@@ -7294,13 +7294,13 @@
         <v>219</v>
       </c>
       <c r="G59">
-        <v>3.98</v>
+        <v>4.1</v>
       </c>
       <c r="H59">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I59">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="J59">
         <v>1.03</v>
@@ -7401,13 +7401,13 @@
         <v>220</v>
       </c>
       <c r="G60">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H60">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>3.17</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -7422,10 +7422,10 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O60">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -7490,7 +7490,7 @@
     </row>
     <row r="61" spans="1:35">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B61" s="2">
         <v>45170</v>
@@ -7508,13 +7508,13 @@
         <v>221</v>
       </c>
       <c r="G61">
-        <v>2.02</v>
+        <v>2.51</v>
       </c>
       <c r="H61">
-        <v>3.2</v>
+        <v>2.97</v>
       </c>
       <c r="I61">
-        <v>3.3</v>
+        <v>2.81</v>
       </c>
       <c r="J61">
         <v>1.11</v>
@@ -7597,7 +7597,7 @@
     </row>
     <row r="62" spans="1:35">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B62" s="2">
         <v>45170</v>
@@ -7615,13 +7615,13 @@
         <v>222</v>
       </c>
       <c r="G62">
-        <v>2.45</v>
+        <v>2.41</v>
       </c>
       <c r="H62">
-        <v>3.33</v>
+        <v>3.48</v>
       </c>
       <c r="I62">
-        <v>2.52</v>
+        <v>2.87</v>
       </c>
       <c r="J62">
         <v>1.05</v>
@@ -7636,10 +7636,10 @@
         <v>3.6</v>
       </c>
       <c r="N62">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="O62">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="P62">
         <v>1.4</v>
@@ -7722,13 +7722,13 @@
         <v>223</v>
       </c>
       <c r="G63">
-        <v>2.58</v>
+        <v>2.23</v>
       </c>
       <c r="H63">
-        <v>3.39</v>
+        <v>2.98</v>
       </c>
       <c r="I63">
-        <v>2.77</v>
+        <v>3.07</v>
       </c>
       <c r="J63">
         <v>1.08</v>
@@ -7743,10 +7743,10 @@
         <v>3</v>
       </c>
       <c r="N63">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="O63">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="P63">
         <v>1.44</v>
@@ -7850,10 +7850,10 @@
         <v>2.33</v>
       </c>
       <c r="N64">
-        <v>2.52</v>
+        <v>2.61</v>
       </c>
       <c r="O64">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="P64">
         <v>1.57</v>
@@ -7927,7 +7927,7 @@
         <v>92</v>
       </c>
       <c r="D65">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E65" t="s">
         <v>158</v>
@@ -7936,91 +7936,91 @@
         <v>225</v>
       </c>
       <c r="G65">
-        <v>1.75</v>
+        <v>2.38</v>
       </c>
       <c r="H65">
-        <v>3.55</v>
+        <v>3.03</v>
       </c>
       <c r="I65">
-        <v>3.7</v>
+        <v>2.78</v>
       </c>
       <c r="J65">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="M65">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="N65">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
       <c r="O65">
-        <v>1.88</v>
+        <v>1.68</v>
       </c>
       <c r="P65">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="S65">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="T65">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="U65">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="V65">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="W65">
-        <v>1.45</v>
+        <v>0.71</v>
       </c>
       <c r="X65">
-        <v>0.8</v>
+        <v>1.07</v>
       </c>
       <c r="Y65">
-        <v>1.61</v>
+        <v>1.03</v>
       </c>
       <c r="Z65">
-        <v>1.52</v>
+        <v>1.2</v>
       </c>
       <c r="AA65">
-        <v>3.13</v>
+        <v>2.23</v>
       </c>
       <c r="AB65">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD65">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="AE65">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AF65">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AG65">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AH65">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AI65">
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:35">
@@ -8034,7 +8034,7 @@
         <v>92</v>
       </c>
       <c r="D66">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E66" t="s">
         <v>159</v>
@@ -8043,91 +8043,91 @@
         <v>226</v>
       </c>
       <c r="G66">
-        <v>2.55</v>
+        <v>1.76</v>
       </c>
       <c r="H66">
-        <v>3.16</v>
+        <v>3.23</v>
       </c>
       <c r="I66">
-        <v>2.99</v>
+        <v>4.3</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="N66">
+        <v>1.82</v>
+      </c>
+      <c r="O66">
+        <v>1.92</v>
+      </c>
+      <c r="P66">
+        <v>1.4</v>
+      </c>
+      <c r="Q66">
+        <v>2.75</v>
+      </c>
+      <c r="R66">
+        <v>1.8</v>
+      </c>
+      <c r="S66">
+        <v>1.91</v>
+      </c>
+      <c r="T66">
+        <v>1.22</v>
+      </c>
+      <c r="U66">
+        <v>1.26</v>
+      </c>
+      <c r="V66">
         <v>2.04</v>
       </c>
-      <c r="O66">
+      <c r="W66">
+        <v>1.45</v>
+      </c>
+      <c r="X66">
+        <v>0.8</v>
+      </c>
+      <c r="Y66">
         <v>1.61</v>
       </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-      <c r="T66">
-        <v>0</v>
-      </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>0.71</v>
-      </c>
-      <c r="X66">
-        <v>1.07</v>
-      </c>
-      <c r="Y66">
-        <v>1.03</v>
-      </c>
       <c r="Z66">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="AA66">
-        <v>2.23</v>
+        <v>3.13</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AC66">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD66">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AE66">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF66">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AG66">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH66">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AI66">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="67" spans="1:35">
@@ -8257,13 +8257,13 @@
         <v>228</v>
       </c>
       <c r="G68">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H68">
         <v>2.73</v>
       </c>
       <c r="I68">
-        <v>2.73</v>
+        <v>2.97</v>
       </c>
       <c r="J68">
         <v>1.11</v>
@@ -8278,10 +8278,10 @@
         <v>2.45</v>
       </c>
       <c r="N68">
-        <v>2.35</v>
+        <v>2.48</v>
       </c>
       <c r="O68">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="P68">
         <v>1.5</v>
